--- a/table.xlsx
+++ b/table.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="141">
   <si>
     <t>№</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>Цена, тенге с НДС</t>
+  </si>
+  <si>
+    <t>section_id</t>
   </si>
   <si>
     <t>ШКАФЫ ITPARK 19"</t>
@@ -437,10 +440,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -488,11 +492,6 @@
     <font>
       <b/>
       <sz val="11.0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -527,7 +526,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border/>
     <border>
       <left style="thin">
@@ -568,6 +567,52 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -580,22 +625,11 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -607,7 +641,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="2" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
@@ -616,36 +650,47 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="7" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="3" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="3" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="3" fillId="3" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="12" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -874,7 +919,8 @@
     <col customWidth="1" min="3" max="3" width="80.5"/>
     <col customWidth="1" min="4" max="4" width="12.5"/>
     <col customWidth="1" min="5" max="5" width="20.75"/>
-    <col customWidth="1" min="6" max="26" width="7.63"/>
+    <col customWidth="1" min="6" max="6" width="10.75"/>
+    <col customWidth="1" min="7" max="25" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -899,7 +945,9 @@
       <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -919,17 +967,16 @@
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
-      <c r="Z3" s="8"/>
     </row>
     <row r="4" ht="24.0" customHeight="1">
-      <c r="A4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="7"/>
+      <c r="A4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -949,55 +996,55 @@
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
-      <c r="Z4" s="8"/>
     </row>
     <row r="5" ht="16.5" customHeight="1" outlineLevel="1">
-      <c r="A5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
+      <c r="A5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
     </row>
     <row r="6" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A6" s="15">
         <v>1.0</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="19">
         <v>25500.0</v>
       </c>
-      <c r="F6" s="20"/>
+      <c r="F6" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G6" s="21"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -1017,25 +1064,26 @@
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
     </row>
     <row r="7" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A7" s="15">
         <v>2.0</v>
       </c>
       <c r="B7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>10</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>9</v>
       </c>
       <c r="E7" s="19">
         <v>25500.0</v>
       </c>
-      <c r="F7" s="20"/>
+      <c r="F7" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G7" s="21"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -1055,25 +1103,26 @@
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
     </row>
     <row r="8" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A8" s="15">
         <v>3.0</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="19">
         <v>25500.0</v>
       </c>
-      <c r="F8" s="20"/>
+      <c r="F8" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G8" s="21"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -1093,25 +1142,26 @@
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
     </row>
     <row r="9" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A9" s="15">
         <v>4.0</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="19">
         <v>30000.0</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="F9" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G9" s="21"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -1131,25 +1181,26 @@
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
     </row>
     <row r="10" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A10" s="15">
         <v>5.0</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="19">
         <v>30000.0</v>
       </c>
-      <c r="F10" s="20"/>
+      <c r="F10" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G10" s="21"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -1169,25 +1220,26 @@
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
     </row>
     <row r="11" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A11" s="15">
         <v>6.0</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="19">
         <v>30500.0</v>
       </c>
-      <c r="F11" s="20"/>
+      <c r="F11" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G11" s="21"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -1207,25 +1259,26 @@
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
     </row>
     <row r="12" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A12" s="15">
         <v>7.0</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="19">
         <v>30500.0</v>
       </c>
-      <c r="F12" s="20"/>
+      <c r="F12" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G12" s="21"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -1245,25 +1298,26 @@
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
     </row>
     <row r="13" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A13" s="15">
         <v>8.0</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="19">
         <v>36500.0</v>
       </c>
-      <c r="F13" s="20"/>
+      <c r="F13" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G13" s="21"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -1283,25 +1337,26 @@
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
     </row>
     <row r="14" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A14" s="15">
         <v>9.0</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="19">
         <v>36500.0</v>
       </c>
-      <c r="F14" s="20"/>
+      <c r="F14" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G14" s="21"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -1321,25 +1376,26 @@
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
     </row>
     <row r="15" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A15" s="15">
         <v>10.0</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" s="19">
         <v>35000.0</v>
       </c>
-      <c r="F15" s="20"/>
+      <c r="F15" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G15" s="21"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -1359,25 +1415,26 @@
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
     </row>
     <row r="16" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A16" s="15">
         <v>11.0</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" s="19">
         <v>35000.0</v>
       </c>
-      <c r="F16" s="20"/>
+      <c r="F16" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G16" s="21"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -1397,25 +1454,26 @@
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
     </row>
     <row r="17" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A17" s="15">
         <v>12.0</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" s="19">
         <v>44500.0</v>
       </c>
-      <c r="F17" s="20"/>
+      <c r="F17" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G17" s="21"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -1435,25 +1493,26 @@
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
     </row>
     <row r="18" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A18" s="15">
         <v>13.0</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" s="19">
         <v>44500.0</v>
       </c>
-      <c r="F18" s="20"/>
+      <c r="F18" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G18" s="21"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -1473,25 +1532,26 @@
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
     </row>
     <row r="19" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A19" s="15">
         <v>14.0</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" s="19">
         <v>46000.0</v>
       </c>
-      <c r="F19" s="20"/>
+      <c r="F19" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G19" s="21"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -1511,25 +1571,26 @@
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
     </row>
     <row r="20" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A20" s="15">
         <v>15.0</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" s="19">
         <v>46000.0</v>
       </c>
-      <c r="F20" s="20"/>
+      <c r="F20" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G20" s="21"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -1549,25 +1610,26 @@
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
     </row>
     <row r="21" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A21" s="15">
         <v>16.0</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" s="19">
         <v>51000.0</v>
       </c>
-      <c r="F21" s="20"/>
+      <c r="F21" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G21" s="21"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -1587,25 +1649,26 @@
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
     </row>
     <row r="22" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A22" s="15">
         <v>17.0</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" s="19">
         <v>47000.0</v>
       </c>
-      <c r="F22" s="20"/>
+      <c r="F22" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G22" s="21"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -1625,55 +1688,55 @@
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
       <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
     </row>
     <row r="23" ht="33.0" customHeight="1" outlineLevel="1">
       <c r="A23" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="14"/>
+        <v>43</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
     </row>
     <row r="24" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A24" s="15">
         <v>1.0</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" s="19">
         <v>64000.0</v>
       </c>
-      <c r="F24" s="20"/>
+      <c r="F24" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G24" s="21"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
@@ -1693,25 +1756,26 @@
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
     </row>
     <row r="25" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A25" s="15">
         <v>2.0</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" s="19">
         <v>100000.0</v>
       </c>
-      <c r="F25" s="20"/>
+      <c r="F25" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G25" s="21"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -1731,25 +1795,26 @@
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
     </row>
     <row r="26" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A26" s="15">
         <v>3.0</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" s="19">
         <v>86500.0</v>
       </c>
-      <c r="F26" s="20"/>
+      <c r="F26" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G26" s="21"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -1769,25 +1834,26 @@
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
     </row>
     <row r="27" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A27" s="15">
         <v>4.0</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" s="19">
         <v>90000.0</v>
       </c>
-      <c r="F27" s="20"/>
+      <c r="F27" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G27" s="21"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -1807,25 +1873,26 @@
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
-      <c r="Z27" s="7"/>
     </row>
     <row r="28" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A28" s="15">
         <v>5.0</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" s="19">
         <v>100500.0</v>
       </c>
-      <c r="F28" s="20"/>
+      <c r="F28" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G28" s="21"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -1845,25 +1912,26 @@
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
-      <c r="Z28" s="7"/>
     </row>
     <row r="29" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A29" s="15">
         <v>6.0</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" s="19">
         <v>110000.0</v>
       </c>
-      <c r="F29" s="20"/>
+      <c r="F29" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G29" s="21"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -1883,25 +1951,26 @@
       <c r="W29" s="7"/>
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
-      <c r="Z29" s="7"/>
     </row>
     <row r="30" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A30" s="15">
         <v>7.0</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" s="19">
         <v>123500.0</v>
       </c>
-      <c r="F30" s="20"/>
+      <c r="F30" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G30" s="21"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
@@ -1921,25 +1990,26 @@
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
     </row>
     <row r="31" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A31" s="15">
         <v>8.0</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" s="19">
         <v>133000.0</v>
       </c>
-      <c r="F31" s="20"/>
+      <c r="F31" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G31" s="21"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -1959,25 +2029,26 @@
       <c r="W31" s="7"/>
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
-      <c r="Z31" s="7"/>
     </row>
     <row r="32" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A32" s="15">
         <v>9.0</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" s="19">
         <v>87000.0</v>
       </c>
-      <c r="F32" s="20"/>
+      <c r="F32" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G32" s="21"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
@@ -1997,25 +2068,26 @@
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
       <c r="Y32" s="7"/>
-      <c r="Z32" s="7"/>
     </row>
     <row r="33" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A33" s="15">
         <v>10.0</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" s="19">
         <v>95000.0</v>
       </c>
-      <c r="F33" s="20"/>
+      <c r="F33" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G33" s="21"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -2035,25 +2107,26 @@
       <c r="W33" s="7"/>
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
-      <c r="Z33" s="7"/>
     </row>
     <row r="34" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A34" s="15">
         <v>11.0</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" s="19">
         <v>130000.0</v>
       </c>
-      <c r="F34" s="20"/>
+      <c r="F34" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G34" s="21"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
@@ -2073,25 +2146,26 @@
       <c r="W34" s="7"/>
       <c r="X34" s="7"/>
       <c r="Y34" s="7"/>
-      <c r="Z34" s="7"/>
     </row>
     <row r="35" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A35" s="15">
         <v>12.0</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" s="19">
         <v>140000.0</v>
       </c>
-      <c r="F35" s="20"/>
+      <c r="F35" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G35" s="21"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
@@ -2111,25 +2185,26 @@
       <c r="W35" s="7"/>
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
-      <c r="Z35" s="7"/>
     </row>
     <row r="36" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A36" s="15">
         <v>13.0</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" s="19">
         <v>109000.0</v>
       </c>
-      <c r="F36" s="20"/>
+      <c r="F36" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G36" s="21"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
@@ -2149,25 +2224,26 @@
       <c r="W36" s="7"/>
       <c r="X36" s="7"/>
       <c r="Y36" s="7"/>
-      <c r="Z36" s="7"/>
     </row>
     <row r="37" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A37" s="15">
         <v>14.0</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" s="19">
         <v>119000.0</v>
       </c>
-      <c r="F37" s="20"/>
+      <c r="F37" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G37" s="21"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
@@ -2187,25 +2263,26 @@
       <c r="W37" s="7"/>
       <c r="X37" s="7"/>
       <c r="Y37" s="7"/>
-      <c r="Z37" s="7"/>
     </row>
     <row r="38" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A38" s="15">
         <v>15.0</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" s="19">
         <v>135500.0</v>
       </c>
-      <c r="F38" s="20"/>
+      <c r="F38" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G38" s="21"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
@@ -2225,25 +2302,26 @@
       <c r="W38" s="7"/>
       <c r="X38" s="7"/>
       <c r="Y38" s="7"/>
-      <c r="Z38" s="7"/>
     </row>
     <row r="39" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A39" s="15">
         <v>16.0</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" s="19">
         <v>144000.0</v>
       </c>
-      <c r="F39" s="20"/>
+      <c r="F39" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G39" s="21"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -2263,25 +2341,26 @@
       <c r="W39" s="7"/>
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
-      <c r="Z39" s="7"/>
     </row>
     <row r="40" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A40" s="15">
         <v>17.0</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" s="19">
         <v>117500.0</v>
       </c>
-      <c r="F40" s="20"/>
+      <c r="F40" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G40" s="21"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
@@ -2301,25 +2380,26 @@
       <c r="W40" s="7"/>
       <c r="X40" s="7"/>
       <c r="Y40" s="7"/>
-      <c r="Z40" s="7"/>
     </row>
     <row r="41" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A41" s="15">
         <v>18.0</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" s="19">
         <v>146000.0</v>
       </c>
-      <c r="F41" s="20"/>
+      <c r="F41" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G41" s="21"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
@@ -2339,25 +2419,26 @@
       <c r="W41" s="7"/>
       <c r="X41" s="7"/>
       <c r="Y41" s="7"/>
-      <c r="Z41" s="7"/>
     </row>
     <row r="42" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A42" s="15">
         <v>19.0</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" s="19">
         <v>130500.0</v>
       </c>
-      <c r="F42" s="20"/>
+      <c r="F42" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G42" s="21"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
@@ -2377,25 +2458,26 @@
       <c r="W42" s="7"/>
       <c r="X42" s="7"/>
       <c r="Y42" s="7"/>
-      <c r="Z42" s="7"/>
     </row>
     <row r="43" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A43" s="15">
         <v>20.0</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" s="19">
         <v>143000.0</v>
       </c>
-      <c r="F43" s="20"/>
+      <c r="F43" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G43" s="21"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -2415,25 +2497,26 @@
       <c r="W43" s="7"/>
       <c r="X43" s="7"/>
       <c r="Y43" s="7"/>
-      <c r="Z43" s="7"/>
     </row>
     <row r="44" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A44" s="15">
         <v>21.0</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" s="19">
         <v>164500.0</v>
       </c>
-      <c r="F44" s="20"/>
+      <c r="F44" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G44" s="21"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
@@ -2453,25 +2536,26 @@
       <c r="W44" s="7"/>
       <c r="X44" s="7"/>
       <c r="Y44" s="7"/>
-      <c r="Z44" s="7"/>
     </row>
     <row r="45" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A45" s="15">
         <v>22.0</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" s="19">
         <v>175000.0</v>
       </c>
-      <c r="F45" s="20"/>
+      <c r="F45" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G45" s="21"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -2491,25 +2575,26 @@
       <c r="W45" s="7"/>
       <c r="X45" s="7"/>
       <c r="Y45" s="7"/>
-      <c r="Z45" s="7"/>
     </row>
     <row r="46" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A46" s="15">
         <v>23.0</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" s="19">
         <v>181000.0</v>
       </c>
-      <c r="F46" s="20"/>
+      <c r="F46" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G46" s="21"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
@@ -2529,25 +2614,26 @@
       <c r="W46" s="7"/>
       <c r="X46" s="7"/>
       <c r="Y46" s="7"/>
-      <c r="Z46" s="7"/>
     </row>
     <row r="47" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A47" s="15">
         <v>24.0</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" s="19">
         <v>190000.0</v>
       </c>
-      <c r="F47" s="20"/>
+      <c r="F47" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G47" s="21"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
@@ -2567,25 +2653,26 @@
       <c r="W47" s="7"/>
       <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
-      <c r="Z47" s="7"/>
     </row>
     <row r="48" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A48" s="15">
         <v>25.0</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" s="19">
         <v>238500.0</v>
       </c>
-      <c r="F48" s="20"/>
+      <c r="F48" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G48" s="21"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
@@ -2605,25 +2692,26 @@
       <c r="W48" s="7"/>
       <c r="X48" s="7"/>
       <c r="Y48" s="7"/>
-      <c r="Z48" s="7"/>
     </row>
     <row r="49" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A49" s="15">
         <v>26.0</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" s="19">
         <v>250000.0</v>
       </c>
-      <c r="F49" s="20"/>
+      <c r="F49" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G49" s="21"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
@@ -2643,25 +2731,26 @@
       <c r="W49" s="7"/>
       <c r="X49" s="7"/>
       <c r="Y49" s="7"/>
-      <c r="Z49" s="7"/>
     </row>
     <row r="50" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A50" s="15">
         <v>27.0</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" s="19">
         <v>260000.0</v>
       </c>
-      <c r="F50" s="20"/>
+      <c r="F50" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G50" s="21"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
@@ -2681,25 +2770,26 @@
       <c r="W50" s="7"/>
       <c r="X50" s="7"/>
       <c r="Y50" s="7"/>
-      <c r="Z50" s="7"/>
     </row>
     <row r="51" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A51" s="15">
         <v>28.0</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" s="19">
         <v>270000.0</v>
       </c>
-      <c r="F51" s="20"/>
+      <c r="F51" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G51" s="21"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
@@ -2719,25 +2809,26 @@
       <c r="W51" s="7"/>
       <c r="X51" s="7"/>
       <c r="Y51" s="7"/>
-      <c r="Z51" s="7"/>
     </row>
     <row r="52" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A52" s="15">
         <v>29.0</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" s="19">
         <v>275000.0</v>
       </c>
-      <c r="F52" s="20"/>
+      <c r="F52" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G52" s="21"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
@@ -2757,55 +2848,55 @@
       <c r="W52" s="7"/>
       <c r="X52" s="7"/>
       <c r="Y52" s="7"/>
-      <c r="Z52" s="7"/>
     </row>
     <row r="53" ht="16.5" customHeight="1" outlineLevel="1">
-      <c r="A53" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="13"/>
-      <c r="P53" s="13"/>
-      <c r="Q53" s="13"/>
-      <c r="R53" s="13"/>
-      <c r="S53" s="13"/>
-      <c r="T53" s="13"/>
-      <c r="U53" s="13"/>
-      <c r="V53" s="13"/>
-      <c r="W53" s="13"/>
-      <c r="X53" s="13"/>
-      <c r="Y53" s="13"/>
-      <c r="Z53" s="14"/>
+      <c r="A53" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="14"/>
+      <c r="S53" s="14"/>
+      <c r="T53" s="14"/>
+      <c r="U53" s="14"/>
+      <c r="V53" s="14"/>
+      <c r="W53" s="14"/>
+      <c r="X53" s="14"/>
+      <c r="Y53" s="14"/>
     </row>
     <row r="54" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A54" s="15">
         <v>1.0</v>
       </c>
-      <c r="B54" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C54" s="24" t="s">
+      <c r="B54" s="26" t="s">
         <v>103</v>
       </c>
+      <c r="C54" s="27" t="s">
+        <v>104</v>
+      </c>
       <c r="D54" s="18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E54" s="19">
         <v>5900.0</v>
       </c>
-      <c r="F54" s="20"/>
+      <c r="F54" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G54" s="21"/>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
@@ -2825,25 +2916,26 @@
       <c r="W54" s="7"/>
       <c r="X54" s="7"/>
       <c r="Y54" s="7"/>
-      <c r="Z54" s="7"/>
     </row>
     <row r="55" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A55" s="15">
         <v>2.0</v>
       </c>
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D55" s="18" t="s">
         <v>105</v>
-      </c>
-      <c r="C55" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>104</v>
       </c>
       <c r="E55" s="19">
         <v>2000.0</v>
       </c>
-      <c r="F55" s="20"/>
+      <c r="F55" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G55" s="21"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
@@ -2863,25 +2955,26 @@
       <c r="W55" s="7"/>
       <c r="X55" s="7"/>
       <c r="Y55" s="7"/>
-      <c r="Z55" s="7"/>
     </row>
     <row r="56" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A56" s="15">
         <v>3.0</v>
       </c>
-      <c r="B56" s="23" t="s">
-        <v>107</v>
+      <c r="B56" s="26" t="s">
+        <v>108</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E56" s="19">
         <v>2200.0</v>
       </c>
-      <c r="F56" s="20"/>
+      <c r="F56" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G56" s="21"/>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
@@ -2901,25 +2994,26 @@
       <c r="W56" s="7"/>
       <c r="X56" s="7"/>
       <c r="Y56" s="7"/>
-      <c r="Z56" s="7"/>
     </row>
     <row r="57" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A57" s="15">
         <v>4.0</v>
       </c>
-      <c r="B57" s="23" t="s">
-        <v>109</v>
+      <c r="B57" s="26" t="s">
+        <v>110</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E57" s="19">
         <v>700.0</v>
       </c>
-      <c r="F57" s="20"/>
+      <c r="F57" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G57" s="21"/>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
@@ -2939,25 +3033,26 @@
       <c r="W57" s="7"/>
       <c r="X57" s="7"/>
       <c r="Y57" s="7"/>
-      <c r="Z57" s="7"/>
     </row>
     <row r="58" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A58" s="15">
         <v>5.0</v>
       </c>
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D58" s="18" t="s">
         <v>112</v>
-      </c>
-      <c r="C58" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="D58" s="18" t="s">
-        <v>111</v>
       </c>
       <c r="E58" s="19">
         <v>3000.0</v>
       </c>
-      <c r="F58" s="20"/>
+      <c r="F58" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G58" s="21"/>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
@@ -2977,25 +3072,26 @@
       <c r="W58" s="7"/>
       <c r="X58" s="7"/>
       <c r="Y58" s="7"/>
-      <c r="Z58" s="7"/>
     </row>
     <row r="59" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A59" s="15">
         <v>6.0</v>
       </c>
-      <c r="B59" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="C59" s="24" t="s">
+      <c r="B59" s="26" t="s">
         <v>115</v>
       </c>
+      <c r="C59" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="D59" s="18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E59" s="19">
         <v>13000.0</v>
       </c>
-      <c r="F59" s="20"/>
+      <c r="F59" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G59" s="21"/>
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
@@ -3015,25 +3111,26 @@
       <c r="W59" s="7"/>
       <c r="X59" s="7"/>
       <c r="Y59" s="7"/>
-      <c r="Z59" s="7"/>
     </row>
     <row r="60" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A60" s="15">
         <v>7.0</v>
       </c>
-      <c r="B60" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="C60" s="24" t="s">
+      <c r="B60" s="26" t="s">
         <v>117</v>
       </c>
+      <c r="C60" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="D60" s="18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E60" s="19">
         <v>15000.0</v>
       </c>
-      <c r="F60" s="20"/>
+      <c r="F60" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G60" s="21"/>
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
@@ -3053,25 +3150,26 @@
       <c r="W60" s="7"/>
       <c r="X60" s="7"/>
       <c r="Y60" s="7"/>
-      <c r="Z60" s="7"/>
     </row>
     <row r="61" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A61" s="15">
         <v>8.0</v>
       </c>
-      <c r="B61" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="C61" s="24" t="s">
+      <c r="B61" s="26" t="s">
         <v>119</v>
       </c>
+      <c r="C61" s="27" t="s">
+        <v>120</v>
+      </c>
       <c r="D61" s="18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E61" s="19">
         <v>16000.0</v>
       </c>
-      <c r="F61" s="20"/>
+      <c r="F61" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G61" s="21"/>
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
@@ -3091,25 +3189,26 @@
       <c r="W61" s="7"/>
       <c r="X61" s="7"/>
       <c r="Y61" s="7"/>
-      <c r="Z61" s="7"/>
     </row>
     <row r="62" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A62" s="15">
         <v>9.0</v>
       </c>
-      <c r="B62" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="C62" s="24" t="s">
+      <c r="B62" s="26" t="s">
         <v>121</v>
       </c>
+      <c r="C62" s="27" t="s">
+        <v>122</v>
+      </c>
       <c r="D62" s="18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E62" s="19">
         <v>20000.0</v>
       </c>
-      <c r="F62" s="20"/>
+      <c r="F62" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G62" s="21"/>
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
@@ -3129,25 +3228,26 @@
       <c r="W62" s="7"/>
       <c r="X62" s="7"/>
       <c r="Y62" s="7"/>
-      <c r="Z62" s="7"/>
     </row>
     <row r="63" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A63" s="15">
         <v>10.0</v>
       </c>
-      <c r="B63" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C63" s="24" t="s">
+      <c r="B63" s="26" t="s">
         <v>123</v>
       </c>
+      <c r="C63" s="27" t="s">
+        <v>124</v>
+      </c>
       <c r="D63" s="18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E63" s="19">
         <v>22000.0</v>
       </c>
-      <c r="F63" s="20"/>
+      <c r="F63" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G63" s="21"/>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
@@ -3167,25 +3267,26 @@
       <c r="W63" s="7"/>
       <c r="X63" s="7"/>
       <c r="Y63" s="7"/>
-      <c r="Z63" s="7"/>
     </row>
     <row r="64" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A64" s="15">
         <v>11.0</v>
       </c>
-      <c r="B64" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="C64" s="24" t="s">
+      <c r="B64" s="26" t="s">
         <v>125</v>
       </c>
+      <c r="C64" s="27" t="s">
+        <v>126</v>
+      </c>
       <c r="D64" s="18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E64" s="19">
         <v>2500.0</v>
       </c>
-      <c r="F64" s="20"/>
+      <c r="F64" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G64" s="21"/>
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
@@ -3205,25 +3306,26 @@
       <c r="W64" s="7"/>
       <c r="X64" s="7"/>
       <c r="Y64" s="7"/>
-      <c r="Z64" s="7"/>
     </row>
     <row r="65" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A65" s="15">
         <v>12.0</v>
       </c>
-      <c r="B65" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="C65" s="24" t="s">
+      <c r="B65" s="26" t="s">
         <v>127</v>
       </c>
+      <c r="C65" s="27" t="s">
+        <v>128</v>
+      </c>
       <c r="D65" s="18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E65" s="19">
         <v>2500.0</v>
       </c>
-      <c r="F65" s="20"/>
+      <c r="F65" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G65" s="21"/>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
@@ -3243,25 +3345,26 @@
       <c r="W65" s="7"/>
       <c r="X65" s="7"/>
       <c r="Y65" s="7"/>
-      <c r="Z65" s="7"/>
     </row>
     <row r="66" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A66" s="15">
         <v>13.0</v>
       </c>
-      <c r="B66" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="C66" s="24" t="s">
+      <c r="B66" s="26" t="s">
         <v>129</v>
       </c>
+      <c r="C66" s="27" t="s">
+        <v>130</v>
+      </c>
       <c r="D66" s="18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E66" s="19">
         <v>2700.0</v>
       </c>
-      <c r="F66" s="20"/>
+      <c r="F66" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G66" s="21"/>
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
@@ -3281,25 +3384,26 @@
       <c r="W66" s="7"/>
       <c r="X66" s="7"/>
       <c r="Y66" s="7"/>
-      <c r="Z66" s="7"/>
     </row>
     <row r="67" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A67" s="15">
         <v>14.0</v>
       </c>
-      <c r="B67" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="C67" s="24" t="s">
+      <c r="B67" s="26" t="s">
         <v>131</v>
       </c>
+      <c r="C67" s="27" t="s">
+        <v>132</v>
+      </c>
       <c r="D67" s="18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E67" s="19">
         <v>2700.0</v>
       </c>
-      <c r="F67" s="20"/>
+      <c r="F67" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G67" s="21"/>
       <c r="H67" s="7"/>
       <c r="I67" s="7"/>
@@ -3319,25 +3423,26 @@
       <c r="W67" s="7"/>
       <c r="X67" s="7"/>
       <c r="Y67" s="7"/>
-      <c r="Z67" s="7"/>
     </row>
     <row r="68" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A68" s="15">
         <v>15.0</v>
       </c>
-      <c r="B68" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="C68" s="24" t="s">
+      <c r="B68" s="26" t="s">
         <v>133</v>
       </c>
+      <c r="C68" s="27" t="s">
+        <v>134</v>
+      </c>
       <c r="D68" s="18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E68" s="19">
         <v>3000.0</v>
       </c>
-      <c r="F68" s="20"/>
+      <c r="F68" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G68" s="21"/>
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
@@ -3357,25 +3462,26 @@
       <c r="W68" s="7"/>
       <c r="X68" s="7"/>
       <c r="Y68" s="7"/>
-      <c r="Z68" s="7"/>
     </row>
     <row r="69" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A69" s="15">
         <v>16.0</v>
       </c>
-      <c r="B69" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="C69" s="24" t="s">
+      <c r="B69" s="26" t="s">
         <v>135</v>
       </c>
+      <c r="C69" s="27" t="s">
+        <v>136</v>
+      </c>
       <c r="D69" s="18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E69" s="19">
         <v>3000.0</v>
       </c>
-      <c r="F69" s="20"/>
+      <c r="F69" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G69" s="21"/>
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
@@ -3395,25 +3501,26 @@
       <c r="W69" s="7"/>
       <c r="X69" s="7"/>
       <c r="Y69" s="7"/>
-      <c r="Z69" s="7"/>
     </row>
     <row r="70" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A70" s="15">
         <v>17.0</v>
       </c>
-      <c r="B70" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="C70" s="24" t="s">
+      <c r="B70" s="26" t="s">
         <v>137</v>
       </c>
+      <c r="C70" s="27" t="s">
+        <v>138</v>
+      </c>
       <c r="D70" s="18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E70" s="19">
         <v>5500.0</v>
       </c>
-      <c r="F70" s="20"/>
+      <c r="F70" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G70" s="21"/>
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
@@ -3433,25 +3540,26 @@
       <c r="W70" s="7"/>
       <c r="X70" s="7"/>
       <c r="Y70" s="7"/>
-      <c r="Z70" s="7"/>
     </row>
     <row r="71" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A71" s="15">
         <v>18.0</v>
       </c>
-      <c r="B71" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="C71" s="24" t="s">
+      <c r="B71" s="26" t="s">
         <v>139</v>
       </c>
+      <c r="C71" s="27" t="s">
+        <v>140</v>
+      </c>
       <c r="D71" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" s="19">
         <v>800.0</v>
       </c>
-      <c r="F71" s="20"/>
+      <c r="F71" s="20">
+        <v>1201.0</v>
+      </c>
       <c r="G71" s="21"/>
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
@@ -3471,7 +3579,6 @@
       <c r="W71" s="7"/>
       <c r="X71" s="7"/>
       <c r="Y71" s="7"/>
-      <c r="Z71" s="7"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="B72" s="1"/>
@@ -4073,2199 +4180,741 @@
     <row r="271" ht="15.75" customHeight="1">
       <c r="B271" s="1"/>
     </row>
-    <row r="272" ht="15.75" customHeight="1">
-      <c r="B272" s="1"/>
-    </row>
-    <row r="273" ht="15.75" customHeight="1">
-      <c r="B273" s="1"/>
-    </row>
-    <row r="274" ht="15.75" customHeight="1">
-      <c r="B274" s="1"/>
-    </row>
-    <row r="275" ht="15.75" customHeight="1">
-      <c r="B275" s="1"/>
-    </row>
-    <row r="276" ht="15.75" customHeight="1">
-      <c r="B276" s="1"/>
-    </row>
-    <row r="277" ht="15.75" customHeight="1">
-      <c r="B277" s="1"/>
-    </row>
-    <row r="278" ht="15.75" customHeight="1">
-      <c r="B278" s="1"/>
-    </row>
-    <row r="279" ht="15.75" customHeight="1">
-      <c r="B279" s="1"/>
-    </row>
-    <row r="280" ht="15.75" customHeight="1">
-      <c r="B280" s="1"/>
-    </row>
-    <row r="281" ht="15.75" customHeight="1">
-      <c r="B281" s="1"/>
-    </row>
-    <row r="282" ht="15.75" customHeight="1">
-      <c r="B282" s="1"/>
-    </row>
-    <row r="283" ht="15.75" customHeight="1">
-      <c r="B283" s="1"/>
-    </row>
-    <row r="284" ht="15.75" customHeight="1">
-      <c r="B284" s="1"/>
-    </row>
-    <row r="285" ht="15.75" customHeight="1">
-      <c r="B285" s="1"/>
-    </row>
-    <row r="286" ht="15.75" customHeight="1">
-      <c r="B286" s="1"/>
-    </row>
-    <row r="287" ht="15.75" customHeight="1">
-      <c r="B287" s="1"/>
-    </row>
-    <row r="288" ht="15.75" customHeight="1">
-      <c r="B288" s="1"/>
-    </row>
-    <row r="289" ht="15.75" customHeight="1">
-      <c r="B289" s="1"/>
-    </row>
-    <row r="290" ht="15.75" customHeight="1">
-      <c r="B290" s="1"/>
-    </row>
-    <row r="291" ht="15.75" customHeight="1">
-      <c r="B291" s="1"/>
-    </row>
-    <row r="292" ht="15.75" customHeight="1">
-      <c r="B292" s="1"/>
-    </row>
-    <row r="293" ht="15.75" customHeight="1">
-      <c r="B293" s="1"/>
-    </row>
-    <row r="294" ht="15.75" customHeight="1">
-      <c r="B294" s="1"/>
-    </row>
-    <row r="295" ht="15.75" customHeight="1">
-      <c r="B295" s="1"/>
-    </row>
-    <row r="296" ht="15.75" customHeight="1">
-      <c r="B296" s="1"/>
-    </row>
-    <row r="297" ht="15.75" customHeight="1">
-      <c r="B297" s="1"/>
-    </row>
-    <row r="298" ht="15.75" customHeight="1">
-      <c r="B298" s="1"/>
-    </row>
-    <row r="299" ht="15.75" customHeight="1">
-      <c r="B299" s="1"/>
-    </row>
-    <row r="300" ht="15.75" customHeight="1">
-      <c r="B300" s="1"/>
-    </row>
-    <row r="301" ht="15.75" customHeight="1">
-      <c r="B301" s="1"/>
-    </row>
-    <row r="302" ht="15.75" customHeight="1">
-      <c r="B302" s="1"/>
-    </row>
-    <row r="303" ht="15.75" customHeight="1">
-      <c r="B303" s="1"/>
-    </row>
-    <row r="304" ht="15.75" customHeight="1">
-      <c r="B304" s="1"/>
-    </row>
-    <row r="305" ht="15.75" customHeight="1">
-      <c r="B305" s="1"/>
-    </row>
-    <row r="306" ht="15.75" customHeight="1">
-      <c r="B306" s="1"/>
-    </row>
-    <row r="307" ht="15.75" customHeight="1">
-      <c r="B307" s="1"/>
-    </row>
-    <row r="308" ht="15.75" customHeight="1">
-      <c r="B308" s="1"/>
-    </row>
-    <row r="309" ht="15.75" customHeight="1">
-      <c r="B309" s="1"/>
-    </row>
-    <row r="310" ht="15.75" customHeight="1">
-      <c r="B310" s="1"/>
-    </row>
-    <row r="311" ht="15.75" customHeight="1">
-      <c r="B311" s="1"/>
-    </row>
-    <row r="312" ht="15.75" customHeight="1">
-      <c r="B312" s="1"/>
-    </row>
-    <row r="313" ht="15.75" customHeight="1">
-      <c r="B313" s="1"/>
-    </row>
-    <row r="314" ht="15.75" customHeight="1">
-      <c r="B314" s="1"/>
-    </row>
-    <row r="315" ht="15.75" customHeight="1">
-      <c r="B315" s="1"/>
-    </row>
-    <row r="316" ht="15.75" customHeight="1">
-      <c r="B316" s="1"/>
-    </row>
-    <row r="317" ht="15.75" customHeight="1">
-      <c r="B317" s="1"/>
-    </row>
-    <row r="318" ht="15.75" customHeight="1">
-      <c r="B318" s="1"/>
-    </row>
-    <row r="319" ht="15.75" customHeight="1">
-      <c r="B319" s="1"/>
-    </row>
-    <row r="320" ht="15.75" customHeight="1">
-      <c r="B320" s="1"/>
-    </row>
-    <row r="321" ht="15.75" customHeight="1">
-      <c r="B321" s="1"/>
-    </row>
-    <row r="322" ht="15.75" customHeight="1">
-      <c r="B322" s="1"/>
-    </row>
-    <row r="323" ht="15.75" customHeight="1">
-      <c r="B323" s="1"/>
-    </row>
-    <row r="324" ht="15.75" customHeight="1">
-      <c r="B324" s="1"/>
-    </row>
-    <row r="325" ht="15.75" customHeight="1">
-      <c r="B325" s="1"/>
-    </row>
-    <row r="326" ht="15.75" customHeight="1">
-      <c r="B326" s="1"/>
-    </row>
-    <row r="327" ht="15.75" customHeight="1">
-      <c r="B327" s="1"/>
-    </row>
-    <row r="328" ht="15.75" customHeight="1">
-      <c r="B328" s="1"/>
-    </row>
-    <row r="329" ht="15.75" customHeight="1">
-      <c r="B329" s="1"/>
-    </row>
-    <row r="330" ht="15.75" customHeight="1">
-      <c r="B330" s="1"/>
-    </row>
-    <row r="331" ht="15.75" customHeight="1">
-      <c r="B331" s="1"/>
-    </row>
-    <row r="332" ht="15.75" customHeight="1">
-      <c r="B332" s="1"/>
-    </row>
-    <row r="333" ht="15.75" customHeight="1">
-      <c r="B333" s="1"/>
-    </row>
-    <row r="334" ht="15.75" customHeight="1">
-      <c r="B334" s="1"/>
-    </row>
-    <row r="335" ht="15.75" customHeight="1">
-      <c r="B335" s="1"/>
-    </row>
-    <row r="336" ht="15.75" customHeight="1">
-      <c r="B336" s="1"/>
-    </row>
-    <row r="337" ht="15.75" customHeight="1">
-      <c r="B337" s="1"/>
-    </row>
-    <row r="338" ht="15.75" customHeight="1">
-      <c r="B338" s="1"/>
-    </row>
-    <row r="339" ht="15.75" customHeight="1">
-      <c r="B339" s="1"/>
-    </row>
-    <row r="340" ht="15.75" customHeight="1">
-      <c r="B340" s="1"/>
-    </row>
-    <row r="341" ht="15.75" customHeight="1">
-      <c r="B341" s="1"/>
-    </row>
-    <row r="342" ht="15.75" customHeight="1">
-      <c r="B342" s="1"/>
-    </row>
-    <row r="343" ht="15.75" customHeight="1">
-      <c r="B343" s="1"/>
-    </row>
-    <row r="344" ht="15.75" customHeight="1">
-      <c r="B344" s="1"/>
-    </row>
-    <row r="345" ht="15.75" customHeight="1">
-      <c r="B345" s="1"/>
-    </row>
-    <row r="346" ht="15.75" customHeight="1">
-      <c r="B346" s="1"/>
-    </row>
-    <row r="347" ht="15.75" customHeight="1">
-      <c r="B347" s="1"/>
-    </row>
-    <row r="348" ht="15.75" customHeight="1">
-      <c r="B348" s="1"/>
-    </row>
-    <row r="349" ht="15.75" customHeight="1">
-      <c r="B349" s="1"/>
-    </row>
-    <row r="350" ht="15.75" customHeight="1">
-      <c r="B350" s="1"/>
-    </row>
-    <row r="351" ht="15.75" customHeight="1">
-      <c r="B351" s="1"/>
-    </row>
-    <row r="352" ht="15.75" customHeight="1">
-      <c r="B352" s="1"/>
-    </row>
-    <row r="353" ht="15.75" customHeight="1">
-      <c r="B353" s="1"/>
-    </row>
-    <row r="354" ht="15.75" customHeight="1">
-      <c r="B354" s="1"/>
-    </row>
-    <row r="355" ht="15.75" customHeight="1">
-      <c r="B355" s="1"/>
-    </row>
-    <row r="356" ht="15.75" customHeight="1">
-      <c r="B356" s="1"/>
-    </row>
-    <row r="357" ht="15.75" customHeight="1">
-      <c r="B357" s="1"/>
-    </row>
-    <row r="358" ht="15.75" customHeight="1">
-      <c r="B358" s="1"/>
-    </row>
-    <row r="359" ht="15.75" customHeight="1">
-      <c r="B359" s="1"/>
-    </row>
-    <row r="360" ht="15.75" customHeight="1">
-      <c r="B360" s="1"/>
-    </row>
-    <row r="361" ht="15.75" customHeight="1">
-      <c r="B361" s="1"/>
-    </row>
-    <row r="362" ht="15.75" customHeight="1">
-      <c r="B362" s="1"/>
-    </row>
-    <row r="363" ht="15.75" customHeight="1">
-      <c r="B363" s="1"/>
-    </row>
-    <row r="364" ht="15.75" customHeight="1">
-      <c r="B364" s="1"/>
-    </row>
-    <row r="365" ht="15.75" customHeight="1">
-      <c r="B365" s="1"/>
-    </row>
-    <row r="366" ht="15.75" customHeight="1">
-      <c r="B366" s="1"/>
-    </row>
-    <row r="367" ht="15.75" customHeight="1">
-      <c r="B367" s="1"/>
-    </row>
-    <row r="368" ht="15.75" customHeight="1">
-      <c r="B368" s="1"/>
-    </row>
-    <row r="369" ht="15.75" customHeight="1">
-      <c r="B369" s="1"/>
-    </row>
-    <row r="370" ht="15.75" customHeight="1">
-      <c r="B370" s="1"/>
-    </row>
-    <row r="371" ht="15.75" customHeight="1">
-      <c r="B371" s="1"/>
-    </row>
-    <row r="372" ht="15.75" customHeight="1">
-      <c r="B372" s="1"/>
-    </row>
-    <row r="373" ht="15.75" customHeight="1">
-      <c r="B373" s="1"/>
-    </row>
-    <row r="374" ht="15.75" customHeight="1">
-      <c r="B374" s="1"/>
-    </row>
-    <row r="375" ht="15.75" customHeight="1">
-      <c r="B375" s="1"/>
-    </row>
-    <row r="376" ht="15.75" customHeight="1">
-      <c r="B376" s="1"/>
-    </row>
-    <row r="377" ht="15.75" customHeight="1">
-      <c r="B377" s="1"/>
-    </row>
-    <row r="378" ht="15.75" customHeight="1">
-      <c r="B378" s="1"/>
-    </row>
-    <row r="379" ht="15.75" customHeight="1">
-      <c r="B379" s="1"/>
-    </row>
-    <row r="380" ht="15.75" customHeight="1">
-      <c r="B380" s="1"/>
-    </row>
-    <row r="381" ht="15.75" customHeight="1">
-      <c r="B381" s="1"/>
-    </row>
-    <row r="382" ht="15.75" customHeight="1">
-      <c r="B382" s="1"/>
-    </row>
-    <row r="383" ht="15.75" customHeight="1">
-      <c r="B383" s="1"/>
-    </row>
-    <row r="384" ht="15.75" customHeight="1">
-      <c r="B384" s="1"/>
-    </row>
-    <row r="385" ht="15.75" customHeight="1">
-      <c r="B385" s="1"/>
-    </row>
-    <row r="386" ht="15.75" customHeight="1">
-      <c r="B386" s="1"/>
-    </row>
-    <row r="387" ht="15.75" customHeight="1">
-      <c r="B387" s="1"/>
-    </row>
-    <row r="388" ht="15.75" customHeight="1">
-      <c r="B388" s="1"/>
-    </row>
-    <row r="389" ht="15.75" customHeight="1">
-      <c r="B389" s="1"/>
-    </row>
-    <row r="390" ht="15.75" customHeight="1">
-      <c r="B390" s="1"/>
-    </row>
-    <row r="391" ht="15.75" customHeight="1">
-      <c r="B391" s="1"/>
-    </row>
-    <row r="392" ht="15.75" customHeight="1">
-      <c r="B392" s="1"/>
-    </row>
-    <row r="393" ht="15.75" customHeight="1">
-      <c r="B393" s="1"/>
-    </row>
-    <row r="394" ht="15.75" customHeight="1">
-      <c r="B394" s="1"/>
-    </row>
-    <row r="395" ht="15.75" customHeight="1">
-      <c r="B395" s="1"/>
-    </row>
-    <row r="396" ht="15.75" customHeight="1">
-      <c r="B396" s="1"/>
-    </row>
-    <row r="397" ht="15.75" customHeight="1">
-      <c r="B397" s="1"/>
-    </row>
-    <row r="398" ht="15.75" customHeight="1">
-      <c r="B398" s="1"/>
-    </row>
-    <row r="399" ht="15.75" customHeight="1">
-      <c r="B399" s="1"/>
-    </row>
-    <row r="400" ht="15.75" customHeight="1">
-      <c r="B400" s="1"/>
-    </row>
-    <row r="401" ht="15.75" customHeight="1">
-      <c r="B401" s="1"/>
-    </row>
-    <row r="402" ht="15.75" customHeight="1">
-      <c r="B402" s="1"/>
-    </row>
-    <row r="403" ht="15.75" customHeight="1">
-      <c r="B403" s="1"/>
-    </row>
-    <row r="404" ht="15.75" customHeight="1">
-      <c r="B404" s="1"/>
-    </row>
-    <row r="405" ht="15.75" customHeight="1">
-      <c r="B405" s="1"/>
-    </row>
-    <row r="406" ht="15.75" customHeight="1">
-      <c r="B406" s="1"/>
-    </row>
-    <row r="407" ht="15.75" customHeight="1">
-      <c r="B407" s="1"/>
-    </row>
-    <row r="408" ht="15.75" customHeight="1">
-      <c r="B408" s="1"/>
-    </row>
-    <row r="409" ht="15.75" customHeight="1">
-      <c r="B409" s="1"/>
-    </row>
-    <row r="410" ht="15.75" customHeight="1">
-      <c r="B410" s="1"/>
-    </row>
-    <row r="411" ht="15.75" customHeight="1">
-      <c r="B411" s="1"/>
-    </row>
-    <row r="412" ht="15.75" customHeight="1">
-      <c r="B412" s="1"/>
-    </row>
-    <row r="413" ht="15.75" customHeight="1">
-      <c r="B413" s="1"/>
-    </row>
-    <row r="414" ht="15.75" customHeight="1">
-      <c r="B414" s="1"/>
-    </row>
-    <row r="415" ht="15.75" customHeight="1">
-      <c r="B415" s="1"/>
-    </row>
-    <row r="416" ht="15.75" customHeight="1">
-      <c r="B416" s="1"/>
-    </row>
-    <row r="417" ht="15.75" customHeight="1">
-      <c r="B417" s="1"/>
-    </row>
-    <row r="418" ht="15.75" customHeight="1">
-      <c r="B418" s="1"/>
-    </row>
-    <row r="419" ht="15.75" customHeight="1">
-      <c r="B419" s="1"/>
-    </row>
-    <row r="420" ht="15.75" customHeight="1">
-      <c r="B420" s="1"/>
-    </row>
-    <row r="421" ht="15.75" customHeight="1">
-      <c r="B421" s="1"/>
-    </row>
-    <row r="422" ht="15.75" customHeight="1">
-      <c r="B422" s="1"/>
-    </row>
-    <row r="423" ht="15.75" customHeight="1">
-      <c r="B423" s="1"/>
-    </row>
-    <row r="424" ht="15.75" customHeight="1">
-      <c r="B424" s="1"/>
-    </row>
-    <row r="425" ht="15.75" customHeight="1">
-      <c r="B425" s="1"/>
-    </row>
-    <row r="426" ht="15.75" customHeight="1">
-      <c r="B426" s="1"/>
-    </row>
-    <row r="427" ht="15.75" customHeight="1">
-      <c r="B427" s="1"/>
-    </row>
-    <row r="428" ht="15.75" customHeight="1">
-      <c r="B428" s="1"/>
-    </row>
-    <row r="429" ht="15.75" customHeight="1">
-      <c r="B429" s="1"/>
-    </row>
-    <row r="430" ht="15.75" customHeight="1">
-      <c r="B430" s="1"/>
-    </row>
-    <row r="431" ht="15.75" customHeight="1">
-      <c r="B431" s="1"/>
-    </row>
-    <row r="432" ht="15.75" customHeight="1">
-      <c r="B432" s="1"/>
-    </row>
-    <row r="433" ht="15.75" customHeight="1">
-      <c r="B433" s="1"/>
-    </row>
-    <row r="434" ht="15.75" customHeight="1">
-      <c r="B434" s="1"/>
-    </row>
-    <row r="435" ht="15.75" customHeight="1">
-      <c r="B435" s="1"/>
-    </row>
-    <row r="436" ht="15.75" customHeight="1">
-      <c r="B436" s="1"/>
-    </row>
-    <row r="437" ht="15.75" customHeight="1">
-      <c r="B437" s="1"/>
-    </row>
-    <row r="438" ht="15.75" customHeight="1">
-      <c r="B438" s="1"/>
-    </row>
-    <row r="439" ht="15.75" customHeight="1">
-      <c r="B439" s="1"/>
-    </row>
-    <row r="440" ht="15.75" customHeight="1">
-      <c r="B440" s="1"/>
-    </row>
-    <row r="441" ht="15.75" customHeight="1">
-      <c r="B441" s="1"/>
-    </row>
-    <row r="442" ht="15.75" customHeight="1">
-      <c r="B442" s="1"/>
-    </row>
-    <row r="443" ht="15.75" customHeight="1">
-      <c r="B443" s="1"/>
-    </row>
-    <row r="444" ht="15.75" customHeight="1">
-      <c r="B444" s="1"/>
-    </row>
-    <row r="445" ht="15.75" customHeight="1">
-      <c r="B445" s="1"/>
-    </row>
-    <row r="446" ht="15.75" customHeight="1">
-      <c r="B446" s="1"/>
-    </row>
-    <row r="447" ht="15.75" customHeight="1">
-      <c r="B447" s="1"/>
-    </row>
-    <row r="448" ht="15.75" customHeight="1">
-      <c r="B448" s="1"/>
-    </row>
-    <row r="449" ht="15.75" customHeight="1">
-      <c r="B449" s="1"/>
-    </row>
-    <row r="450" ht="15.75" customHeight="1">
-      <c r="B450" s="1"/>
-    </row>
-    <row r="451" ht="15.75" customHeight="1">
-      <c r="B451" s="1"/>
-    </row>
-    <row r="452" ht="15.75" customHeight="1">
-      <c r="B452" s="1"/>
-    </row>
-    <row r="453" ht="15.75" customHeight="1">
-      <c r="B453" s="1"/>
-    </row>
-    <row r="454" ht="15.75" customHeight="1">
-      <c r="B454" s="1"/>
-    </row>
-    <row r="455" ht="15.75" customHeight="1">
-      <c r="B455" s="1"/>
-    </row>
-    <row r="456" ht="15.75" customHeight="1">
-      <c r="B456" s="1"/>
-    </row>
-    <row r="457" ht="15.75" customHeight="1">
-      <c r="B457" s="1"/>
-    </row>
-    <row r="458" ht="15.75" customHeight="1">
-      <c r="B458" s="1"/>
-    </row>
-    <row r="459" ht="15.75" customHeight="1">
-      <c r="B459" s="1"/>
-    </row>
-    <row r="460" ht="15.75" customHeight="1">
-      <c r="B460" s="1"/>
-    </row>
-    <row r="461" ht="15.75" customHeight="1">
-      <c r="B461" s="1"/>
-    </row>
-    <row r="462" ht="15.75" customHeight="1">
-      <c r="B462" s="1"/>
-    </row>
-    <row r="463" ht="15.75" customHeight="1">
-      <c r="B463" s="1"/>
-    </row>
-    <row r="464" ht="15.75" customHeight="1">
-      <c r="B464" s="1"/>
-    </row>
-    <row r="465" ht="15.75" customHeight="1">
-      <c r="B465" s="1"/>
-    </row>
-    <row r="466" ht="15.75" customHeight="1">
-      <c r="B466" s="1"/>
-    </row>
-    <row r="467" ht="15.75" customHeight="1">
-      <c r="B467" s="1"/>
-    </row>
-    <row r="468" ht="15.75" customHeight="1">
-      <c r="B468" s="1"/>
-    </row>
-    <row r="469" ht="15.75" customHeight="1">
-      <c r="B469" s="1"/>
-    </row>
-    <row r="470" ht="15.75" customHeight="1">
-      <c r="B470" s="1"/>
-    </row>
-    <row r="471" ht="15.75" customHeight="1">
-      <c r="B471" s="1"/>
-    </row>
-    <row r="472" ht="15.75" customHeight="1">
-      <c r="B472" s="1"/>
-    </row>
-    <row r="473" ht="15.75" customHeight="1">
-      <c r="B473" s="1"/>
-    </row>
-    <row r="474" ht="15.75" customHeight="1">
-      <c r="B474" s="1"/>
-    </row>
-    <row r="475" ht="15.75" customHeight="1">
-      <c r="B475" s="1"/>
-    </row>
-    <row r="476" ht="15.75" customHeight="1">
-      <c r="B476" s="1"/>
-    </row>
-    <row r="477" ht="15.75" customHeight="1">
-      <c r="B477" s="1"/>
-    </row>
-    <row r="478" ht="15.75" customHeight="1">
-      <c r="B478" s="1"/>
-    </row>
-    <row r="479" ht="15.75" customHeight="1">
-      <c r="B479" s="1"/>
-    </row>
-    <row r="480" ht="15.75" customHeight="1">
-      <c r="B480" s="1"/>
-    </row>
-    <row r="481" ht="15.75" customHeight="1">
-      <c r="B481" s="1"/>
-    </row>
-    <row r="482" ht="15.75" customHeight="1">
-      <c r="B482" s="1"/>
-    </row>
-    <row r="483" ht="15.75" customHeight="1">
-      <c r="B483" s="1"/>
-    </row>
-    <row r="484" ht="15.75" customHeight="1">
-      <c r="B484" s="1"/>
-    </row>
-    <row r="485" ht="15.75" customHeight="1">
-      <c r="B485" s="1"/>
-    </row>
-    <row r="486" ht="15.75" customHeight="1">
-      <c r="B486" s="1"/>
-    </row>
-    <row r="487" ht="15.75" customHeight="1">
-      <c r="B487" s="1"/>
-    </row>
-    <row r="488" ht="15.75" customHeight="1">
-      <c r="B488" s="1"/>
-    </row>
-    <row r="489" ht="15.75" customHeight="1">
-      <c r="B489" s="1"/>
-    </row>
-    <row r="490" ht="15.75" customHeight="1">
-      <c r="B490" s="1"/>
-    </row>
-    <row r="491" ht="15.75" customHeight="1">
-      <c r="B491" s="1"/>
-    </row>
-    <row r="492" ht="15.75" customHeight="1">
-      <c r="B492" s="1"/>
-    </row>
-    <row r="493" ht="15.75" customHeight="1">
-      <c r="B493" s="1"/>
-    </row>
-    <row r="494" ht="15.75" customHeight="1">
-      <c r="B494" s="1"/>
-    </row>
-    <row r="495" ht="15.75" customHeight="1">
-      <c r="B495" s="1"/>
-    </row>
-    <row r="496" ht="15.75" customHeight="1">
-      <c r="B496" s="1"/>
-    </row>
-    <row r="497" ht="15.75" customHeight="1">
-      <c r="B497" s="1"/>
-    </row>
-    <row r="498" ht="15.75" customHeight="1">
-      <c r="B498" s="1"/>
-    </row>
-    <row r="499" ht="15.75" customHeight="1">
-      <c r="B499" s="1"/>
-    </row>
-    <row r="500" ht="15.75" customHeight="1">
-      <c r="B500" s="1"/>
-    </row>
-    <row r="501" ht="15.75" customHeight="1">
-      <c r="B501" s="1"/>
-    </row>
-    <row r="502" ht="15.75" customHeight="1">
-      <c r="B502" s="1"/>
-    </row>
-    <row r="503" ht="15.75" customHeight="1">
-      <c r="B503" s="1"/>
-    </row>
-    <row r="504" ht="15.75" customHeight="1">
-      <c r="B504" s="1"/>
-    </row>
-    <row r="505" ht="15.75" customHeight="1">
-      <c r="B505" s="1"/>
-    </row>
-    <row r="506" ht="15.75" customHeight="1">
-      <c r="B506" s="1"/>
-    </row>
-    <row r="507" ht="15.75" customHeight="1">
-      <c r="B507" s="1"/>
-    </row>
-    <row r="508" ht="15.75" customHeight="1">
-      <c r="B508" s="1"/>
-    </row>
-    <row r="509" ht="15.75" customHeight="1">
-      <c r="B509" s="1"/>
-    </row>
-    <row r="510" ht="15.75" customHeight="1">
-      <c r="B510" s="1"/>
-    </row>
-    <row r="511" ht="15.75" customHeight="1">
-      <c r="B511" s="1"/>
-    </row>
-    <row r="512" ht="15.75" customHeight="1">
-      <c r="B512" s="1"/>
-    </row>
-    <row r="513" ht="15.75" customHeight="1">
-      <c r="B513" s="1"/>
-    </row>
-    <row r="514" ht="15.75" customHeight="1">
-      <c r="B514" s="1"/>
-    </row>
-    <row r="515" ht="15.75" customHeight="1">
-      <c r="B515" s="1"/>
-    </row>
-    <row r="516" ht="15.75" customHeight="1">
-      <c r="B516" s="1"/>
-    </row>
-    <row r="517" ht="15.75" customHeight="1">
-      <c r="B517" s="1"/>
-    </row>
-    <row r="518" ht="15.75" customHeight="1">
-      <c r="B518" s="1"/>
-    </row>
-    <row r="519" ht="15.75" customHeight="1">
-      <c r="B519" s="1"/>
-    </row>
-    <row r="520" ht="15.75" customHeight="1">
-      <c r="B520" s="1"/>
-    </row>
-    <row r="521" ht="15.75" customHeight="1">
-      <c r="B521" s="1"/>
-    </row>
-    <row r="522" ht="15.75" customHeight="1">
-      <c r="B522" s="1"/>
-    </row>
-    <row r="523" ht="15.75" customHeight="1">
-      <c r="B523" s="1"/>
-    </row>
-    <row r="524" ht="15.75" customHeight="1">
-      <c r="B524" s="1"/>
-    </row>
-    <row r="525" ht="15.75" customHeight="1">
-      <c r="B525" s="1"/>
-    </row>
-    <row r="526" ht="15.75" customHeight="1">
-      <c r="B526" s="1"/>
-    </row>
-    <row r="527" ht="15.75" customHeight="1">
-      <c r="B527" s="1"/>
-    </row>
-    <row r="528" ht="15.75" customHeight="1">
-      <c r="B528" s="1"/>
-    </row>
-    <row r="529" ht="15.75" customHeight="1">
-      <c r="B529" s="1"/>
-    </row>
-    <row r="530" ht="15.75" customHeight="1">
-      <c r="B530" s="1"/>
-    </row>
-    <row r="531" ht="15.75" customHeight="1">
-      <c r="B531" s="1"/>
-    </row>
-    <row r="532" ht="15.75" customHeight="1">
-      <c r="B532" s="1"/>
-    </row>
-    <row r="533" ht="15.75" customHeight="1">
-      <c r="B533" s="1"/>
-    </row>
-    <row r="534" ht="15.75" customHeight="1">
-      <c r="B534" s="1"/>
-    </row>
-    <row r="535" ht="15.75" customHeight="1">
-      <c r="B535" s="1"/>
-    </row>
-    <row r="536" ht="15.75" customHeight="1">
-      <c r="B536" s="1"/>
-    </row>
-    <row r="537" ht="15.75" customHeight="1">
-      <c r="B537" s="1"/>
-    </row>
-    <row r="538" ht="15.75" customHeight="1">
-      <c r="B538" s="1"/>
-    </row>
-    <row r="539" ht="15.75" customHeight="1">
-      <c r="B539" s="1"/>
-    </row>
-    <row r="540" ht="15.75" customHeight="1">
-      <c r="B540" s="1"/>
-    </row>
-    <row r="541" ht="15.75" customHeight="1">
-      <c r="B541" s="1"/>
-    </row>
-    <row r="542" ht="15.75" customHeight="1">
-      <c r="B542" s="1"/>
-    </row>
-    <row r="543" ht="15.75" customHeight="1">
-      <c r="B543" s="1"/>
-    </row>
-    <row r="544" ht="15.75" customHeight="1">
-      <c r="B544" s="1"/>
-    </row>
-    <row r="545" ht="15.75" customHeight="1">
-      <c r="B545" s="1"/>
-    </row>
-    <row r="546" ht="15.75" customHeight="1">
-      <c r="B546" s="1"/>
-    </row>
-    <row r="547" ht="15.75" customHeight="1">
-      <c r="B547" s="1"/>
-    </row>
-    <row r="548" ht="15.75" customHeight="1">
-      <c r="B548" s="1"/>
-    </row>
-    <row r="549" ht="15.75" customHeight="1">
-      <c r="B549" s="1"/>
-    </row>
-    <row r="550" ht="15.75" customHeight="1">
-      <c r="B550" s="1"/>
-    </row>
-    <row r="551" ht="15.75" customHeight="1">
-      <c r="B551" s="1"/>
-    </row>
-    <row r="552" ht="15.75" customHeight="1">
-      <c r="B552" s="1"/>
-    </row>
-    <row r="553" ht="15.75" customHeight="1">
-      <c r="B553" s="1"/>
-    </row>
-    <row r="554" ht="15.75" customHeight="1">
-      <c r="B554" s="1"/>
-    </row>
-    <row r="555" ht="15.75" customHeight="1">
-      <c r="B555" s="1"/>
-    </row>
-    <row r="556" ht="15.75" customHeight="1">
-      <c r="B556" s="1"/>
-    </row>
-    <row r="557" ht="15.75" customHeight="1">
-      <c r="B557" s="1"/>
-    </row>
-    <row r="558" ht="15.75" customHeight="1">
-      <c r="B558" s="1"/>
-    </row>
-    <row r="559" ht="15.75" customHeight="1">
-      <c r="B559" s="1"/>
-    </row>
-    <row r="560" ht="15.75" customHeight="1">
-      <c r="B560" s="1"/>
-    </row>
-    <row r="561" ht="15.75" customHeight="1">
-      <c r="B561" s="1"/>
-    </row>
-    <row r="562" ht="15.75" customHeight="1">
-      <c r="B562" s="1"/>
-    </row>
-    <row r="563" ht="15.75" customHeight="1">
-      <c r="B563" s="1"/>
-    </row>
-    <row r="564" ht="15.75" customHeight="1">
-      <c r="B564" s="1"/>
-    </row>
-    <row r="565" ht="15.75" customHeight="1">
-      <c r="B565" s="1"/>
-    </row>
-    <row r="566" ht="15.75" customHeight="1">
-      <c r="B566" s="1"/>
-    </row>
-    <row r="567" ht="15.75" customHeight="1">
-      <c r="B567" s="1"/>
-    </row>
-    <row r="568" ht="15.75" customHeight="1">
-      <c r="B568" s="1"/>
-    </row>
-    <row r="569" ht="15.75" customHeight="1">
-      <c r="B569" s="1"/>
-    </row>
-    <row r="570" ht="15.75" customHeight="1">
-      <c r="B570" s="1"/>
-    </row>
-    <row r="571" ht="15.75" customHeight="1">
-      <c r="B571" s="1"/>
-    </row>
-    <row r="572" ht="15.75" customHeight="1">
-      <c r="B572" s="1"/>
-    </row>
-    <row r="573" ht="15.75" customHeight="1">
-      <c r="B573" s="1"/>
-    </row>
-    <row r="574" ht="15.75" customHeight="1">
-      <c r="B574" s="1"/>
-    </row>
-    <row r="575" ht="15.75" customHeight="1">
-      <c r="B575" s="1"/>
-    </row>
-    <row r="576" ht="15.75" customHeight="1">
-      <c r="B576" s="1"/>
-    </row>
-    <row r="577" ht="15.75" customHeight="1">
-      <c r="B577" s="1"/>
-    </row>
-    <row r="578" ht="15.75" customHeight="1">
-      <c r="B578" s="1"/>
-    </row>
-    <row r="579" ht="15.75" customHeight="1">
-      <c r="B579" s="1"/>
-    </row>
-    <row r="580" ht="15.75" customHeight="1">
-      <c r="B580" s="1"/>
-    </row>
-    <row r="581" ht="15.75" customHeight="1">
-      <c r="B581" s="1"/>
-    </row>
-    <row r="582" ht="15.75" customHeight="1">
-      <c r="B582" s="1"/>
-    </row>
-    <row r="583" ht="15.75" customHeight="1">
-      <c r="B583" s="1"/>
-    </row>
-    <row r="584" ht="15.75" customHeight="1">
-      <c r="B584" s="1"/>
-    </row>
-    <row r="585" ht="15.75" customHeight="1">
-      <c r="B585" s="1"/>
-    </row>
-    <row r="586" ht="15.75" customHeight="1">
-      <c r="B586" s="1"/>
-    </row>
-    <row r="587" ht="15.75" customHeight="1">
-      <c r="B587" s="1"/>
-    </row>
-    <row r="588" ht="15.75" customHeight="1">
-      <c r="B588" s="1"/>
-    </row>
-    <row r="589" ht="15.75" customHeight="1">
-      <c r="B589" s="1"/>
-    </row>
-    <row r="590" ht="15.75" customHeight="1">
-      <c r="B590" s="1"/>
-    </row>
-    <row r="591" ht="15.75" customHeight="1">
-      <c r="B591" s="1"/>
-    </row>
-    <row r="592" ht="15.75" customHeight="1">
-      <c r="B592" s="1"/>
-    </row>
-    <row r="593" ht="15.75" customHeight="1">
-      <c r="B593" s="1"/>
-    </row>
-    <row r="594" ht="15.75" customHeight="1">
-      <c r="B594" s="1"/>
-    </row>
-    <row r="595" ht="15.75" customHeight="1">
-      <c r="B595" s="1"/>
-    </row>
-    <row r="596" ht="15.75" customHeight="1">
-      <c r="B596" s="1"/>
-    </row>
-    <row r="597" ht="15.75" customHeight="1">
-      <c r="B597" s="1"/>
-    </row>
-    <row r="598" ht="15.75" customHeight="1">
-      <c r="B598" s="1"/>
-    </row>
-    <row r="599" ht="15.75" customHeight="1">
-      <c r="B599" s="1"/>
-    </row>
-    <row r="600" ht="15.75" customHeight="1">
-      <c r="B600" s="1"/>
-    </row>
-    <row r="601" ht="15.75" customHeight="1">
-      <c r="B601" s="1"/>
-    </row>
-    <row r="602" ht="15.75" customHeight="1">
-      <c r="B602" s="1"/>
-    </row>
-    <row r="603" ht="15.75" customHeight="1">
-      <c r="B603" s="1"/>
-    </row>
-    <row r="604" ht="15.75" customHeight="1">
-      <c r="B604" s="1"/>
-    </row>
-    <row r="605" ht="15.75" customHeight="1">
-      <c r="B605" s="1"/>
-    </row>
-    <row r="606" ht="15.75" customHeight="1">
-      <c r="B606" s="1"/>
-    </row>
-    <row r="607" ht="15.75" customHeight="1">
-      <c r="B607" s="1"/>
-    </row>
-    <row r="608" ht="15.75" customHeight="1">
-      <c r="B608" s="1"/>
-    </row>
-    <row r="609" ht="15.75" customHeight="1">
-      <c r="B609" s="1"/>
-    </row>
-    <row r="610" ht="15.75" customHeight="1">
-      <c r="B610" s="1"/>
-    </row>
-    <row r="611" ht="15.75" customHeight="1">
-      <c r="B611" s="1"/>
-    </row>
-    <row r="612" ht="15.75" customHeight="1">
-      <c r="B612" s="1"/>
-    </row>
-    <row r="613" ht="15.75" customHeight="1">
-      <c r="B613" s="1"/>
-    </row>
-    <row r="614" ht="15.75" customHeight="1">
-      <c r="B614" s="1"/>
-    </row>
-    <row r="615" ht="15.75" customHeight="1">
-      <c r="B615" s="1"/>
-    </row>
-    <row r="616" ht="15.75" customHeight="1">
-      <c r="B616" s="1"/>
-    </row>
-    <row r="617" ht="15.75" customHeight="1">
-      <c r="B617" s="1"/>
-    </row>
-    <row r="618" ht="15.75" customHeight="1">
-      <c r="B618" s="1"/>
-    </row>
-    <row r="619" ht="15.75" customHeight="1">
-      <c r="B619" s="1"/>
-    </row>
-    <row r="620" ht="15.75" customHeight="1">
-      <c r="B620" s="1"/>
-    </row>
-    <row r="621" ht="15.75" customHeight="1">
-      <c r="B621" s="1"/>
-    </row>
-    <row r="622" ht="15.75" customHeight="1">
-      <c r="B622" s="1"/>
-    </row>
-    <row r="623" ht="15.75" customHeight="1">
-      <c r="B623" s="1"/>
-    </row>
-    <row r="624" ht="15.75" customHeight="1">
-      <c r="B624" s="1"/>
-    </row>
-    <row r="625" ht="15.75" customHeight="1">
-      <c r="B625" s="1"/>
-    </row>
-    <row r="626" ht="15.75" customHeight="1">
-      <c r="B626" s="1"/>
-    </row>
-    <row r="627" ht="15.75" customHeight="1">
-      <c r="B627" s="1"/>
-    </row>
-    <row r="628" ht="15.75" customHeight="1">
-      <c r="B628" s="1"/>
-    </row>
-    <row r="629" ht="15.75" customHeight="1">
-      <c r="B629" s="1"/>
-    </row>
-    <row r="630" ht="15.75" customHeight="1">
-      <c r="B630" s="1"/>
-    </row>
-    <row r="631" ht="15.75" customHeight="1">
-      <c r="B631" s="1"/>
-    </row>
-    <row r="632" ht="15.75" customHeight="1">
-      <c r="B632" s="1"/>
-    </row>
-    <row r="633" ht="15.75" customHeight="1">
-      <c r="B633" s="1"/>
-    </row>
-    <row r="634" ht="15.75" customHeight="1">
-      <c r="B634" s="1"/>
-    </row>
-    <row r="635" ht="15.75" customHeight="1">
-      <c r="B635" s="1"/>
-    </row>
-    <row r="636" ht="15.75" customHeight="1">
-      <c r="B636" s="1"/>
-    </row>
-    <row r="637" ht="15.75" customHeight="1">
-      <c r="B637" s="1"/>
-    </row>
-    <row r="638" ht="15.75" customHeight="1">
-      <c r="B638" s="1"/>
-    </row>
-    <row r="639" ht="15.75" customHeight="1">
-      <c r="B639" s="1"/>
-    </row>
-    <row r="640" ht="15.75" customHeight="1">
-      <c r="B640" s="1"/>
-    </row>
-    <row r="641" ht="15.75" customHeight="1">
-      <c r="B641" s="1"/>
-    </row>
-    <row r="642" ht="15.75" customHeight="1">
-      <c r="B642" s="1"/>
-    </row>
-    <row r="643" ht="15.75" customHeight="1">
-      <c r="B643" s="1"/>
-    </row>
-    <row r="644" ht="15.75" customHeight="1">
-      <c r="B644" s="1"/>
-    </row>
-    <row r="645" ht="15.75" customHeight="1">
-      <c r="B645" s="1"/>
-    </row>
-    <row r="646" ht="15.75" customHeight="1">
-      <c r="B646" s="1"/>
-    </row>
-    <row r="647" ht="15.75" customHeight="1">
-      <c r="B647" s="1"/>
-    </row>
-    <row r="648" ht="15.75" customHeight="1">
-      <c r="B648" s="1"/>
-    </row>
-    <row r="649" ht="15.75" customHeight="1">
-      <c r="B649" s="1"/>
-    </row>
-    <row r="650" ht="15.75" customHeight="1">
-      <c r="B650" s="1"/>
-    </row>
-    <row r="651" ht="15.75" customHeight="1">
-      <c r="B651" s="1"/>
-    </row>
-    <row r="652" ht="15.75" customHeight="1">
-      <c r="B652" s="1"/>
-    </row>
-    <row r="653" ht="15.75" customHeight="1">
-      <c r="B653" s="1"/>
-    </row>
-    <row r="654" ht="15.75" customHeight="1">
-      <c r="B654" s="1"/>
-    </row>
-    <row r="655" ht="15.75" customHeight="1">
-      <c r="B655" s="1"/>
-    </row>
-    <row r="656" ht="15.75" customHeight="1">
-      <c r="B656" s="1"/>
-    </row>
-    <row r="657" ht="15.75" customHeight="1">
-      <c r="B657" s="1"/>
-    </row>
-    <row r="658" ht="15.75" customHeight="1">
-      <c r="B658" s="1"/>
-    </row>
-    <row r="659" ht="15.75" customHeight="1">
-      <c r="B659" s="1"/>
-    </row>
-    <row r="660" ht="15.75" customHeight="1">
-      <c r="B660" s="1"/>
-    </row>
-    <row r="661" ht="15.75" customHeight="1">
-      <c r="B661" s="1"/>
-    </row>
-    <row r="662" ht="15.75" customHeight="1">
-      <c r="B662" s="1"/>
-    </row>
-    <row r="663" ht="15.75" customHeight="1">
-      <c r="B663" s="1"/>
-    </row>
-    <row r="664" ht="15.75" customHeight="1">
-      <c r="B664" s="1"/>
-    </row>
-    <row r="665" ht="15.75" customHeight="1">
-      <c r="B665" s="1"/>
-    </row>
-    <row r="666" ht="15.75" customHeight="1">
-      <c r="B666" s="1"/>
-    </row>
-    <row r="667" ht="15.75" customHeight="1">
-      <c r="B667" s="1"/>
-    </row>
-    <row r="668" ht="15.75" customHeight="1">
-      <c r="B668" s="1"/>
-    </row>
-    <row r="669" ht="15.75" customHeight="1">
-      <c r="B669" s="1"/>
-    </row>
-    <row r="670" ht="15.75" customHeight="1">
-      <c r="B670" s="1"/>
-    </row>
-    <row r="671" ht="15.75" customHeight="1">
-      <c r="B671" s="1"/>
-    </row>
-    <row r="672" ht="15.75" customHeight="1">
-      <c r="B672" s="1"/>
-    </row>
-    <row r="673" ht="15.75" customHeight="1">
-      <c r="B673" s="1"/>
-    </row>
-    <row r="674" ht="15.75" customHeight="1">
-      <c r="B674" s="1"/>
-    </row>
-    <row r="675" ht="15.75" customHeight="1">
-      <c r="B675" s="1"/>
-    </row>
-    <row r="676" ht="15.75" customHeight="1">
-      <c r="B676" s="1"/>
-    </row>
-    <row r="677" ht="15.75" customHeight="1">
-      <c r="B677" s="1"/>
-    </row>
-    <row r="678" ht="15.75" customHeight="1">
-      <c r="B678" s="1"/>
-    </row>
-    <row r="679" ht="15.75" customHeight="1">
-      <c r="B679" s="1"/>
-    </row>
-    <row r="680" ht="15.75" customHeight="1">
-      <c r="B680" s="1"/>
-    </row>
-    <row r="681" ht="15.75" customHeight="1">
-      <c r="B681" s="1"/>
-    </row>
-    <row r="682" ht="15.75" customHeight="1">
-      <c r="B682" s="1"/>
-    </row>
-    <row r="683" ht="15.75" customHeight="1">
-      <c r="B683" s="1"/>
-    </row>
-    <row r="684" ht="15.75" customHeight="1">
-      <c r="B684" s="1"/>
-    </row>
-    <row r="685" ht="15.75" customHeight="1">
-      <c r="B685" s="1"/>
-    </row>
-    <row r="686" ht="15.75" customHeight="1">
-      <c r="B686" s="1"/>
-    </row>
-    <row r="687" ht="15.75" customHeight="1">
-      <c r="B687" s="1"/>
-    </row>
-    <row r="688" ht="15.75" customHeight="1">
-      <c r="B688" s="1"/>
-    </row>
-    <row r="689" ht="15.75" customHeight="1">
-      <c r="B689" s="1"/>
-    </row>
-    <row r="690" ht="15.75" customHeight="1">
-      <c r="B690" s="1"/>
-    </row>
-    <row r="691" ht="15.75" customHeight="1">
-      <c r="B691" s="1"/>
-    </row>
-    <row r="692" ht="15.75" customHeight="1">
-      <c r="B692" s="1"/>
-    </row>
-    <row r="693" ht="15.75" customHeight="1">
-      <c r="B693" s="1"/>
-    </row>
-    <row r="694" ht="15.75" customHeight="1">
-      <c r="B694" s="1"/>
-    </row>
-    <row r="695" ht="15.75" customHeight="1">
-      <c r="B695" s="1"/>
-    </row>
-    <row r="696" ht="15.75" customHeight="1">
-      <c r="B696" s="1"/>
-    </row>
-    <row r="697" ht="15.75" customHeight="1">
-      <c r="B697" s="1"/>
-    </row>
-    <row r="698" ht="15.75" customHeight="1">
-      <c r="B698" s="1"/>
-    </row>
-    <row r="699" ht="15.75" customHeight="1">
-      <c r="B699" s="1"/>
-    </row>
-    <row r="700" ht="15.75" customHeight="1">
-      <c r="B700" s="1"/>
-    </row>
-    <row r="701" ht="15.75" customHeight="1">
-      <c r="B701" s="1"/>
-    </row>
-    <row r="702" ht="15.75" customHeight="1">
-      <c r="B702" s="1"/>
-    </row>
-    <row r="703" ht="15.75" customHeight="1">
-      <c r="B703" s="1"/>
-    </row>
-    <row r="704" ht="15.75" customHeight="1">
-      <c r="B704" s="1"/>
-    </row>
-    <row r="705" ht="15.75" customHeight="1">
-      <c r="B705" s="1"/>
-    </row>
-    <row r="706" ht="15.75" customHeight="1">
-      <c r="B706" s="1"/>
-    </row>
-    <row r="707" ht="15.75" customHeight="1">
-      <c r="B707" s="1"/>
-    </row>
-    <row r="708" ht="15.75" customHeight="1">
-      <c r="B708" s="1"/>
-    </row>
-    <row r="709" ht="15.75" customHeight="1">
-      <c r="B709" s="1"/>
-    </row>
-    <row r="710" ht="15.75" customHeight="1">
-      <c r="B710" s="1"/>
-    </row>
-    <row r="711" ht="15.75" customHeight="1">
-      <c r="B711" s="1"/>
-    </row>
-    <row r="712" ht="15.75" customHeight="1">
-      <c r="B712" s="1"/>
-    </row>
-    <row r="713" ht="15.75" customHeight="1">
-      <c r="B713" s="1"/>
-    </row>
-    <row r="714" ht="15.75" customHeight="1">
-      <c r="B714" s="1"/>
-    </row>
-    <row r="715" ht="15.75" customHeight="1">
-      <c r="B715" s="1"/>
-    </row>
-    <row r="716" ht="15.75" customHeight="1">
-      <c r="B716" s="1"/>
-    </row>
-    <row r="717" ht="15.75" customHeight="1">
-      <c r="B717" s="1"/>
-    </row>
-    <row r="718" ht="15.75" customHeight="1">
-      <c r="B718" s="1"/>
-    </row>
-    <row r="719" ht="15.75" customHeight="1">
-      <c r="B719" s="1"/>
-    </row>
-    <row r="720" ht="15.75" customHeight="1">
-      <c r="B720" s="1"/>
-    </row>
-    <row r="721" ht="15.75" customHeight="1">
-      <c r="B721" s="1"/>
-    </row>
-    <row r="722" ht="15.75" customHeight="1">
-      <c r="B722" s="1"/>
-    </row>
-    <row r="723" ht="15.75" customHeight="1">
-      <c r="B723" s="1"/>
-    </row>
-    <row r="724" ht="15.75" customHeight="1">
-      <c r="B724" s="1"/>
-    </row>
-    <row r="725" ht="15.75" customHeight="1">
-      <c r="B725" s="1"/>
-    </row>
-    <row r="726" ht="15.75" customHeight="1">
-      <c r="B726" s="1"/>
-    </row>
-    <row r="727" ht="15.75" customHeight="1">
-      <c r="B727" s="1"/>
-    </row>
-    <row r="728" ht="15.75" customHeight="1">
-      <c r="B728" s="1"/>
-    </row>
-    <row r="729" ht="15.75" customHeight="1">
-      <c r="B729" s="1"/>
-    </row>
-    <row r="730" ht="15.75" customHeight="1">
-      <c r="B730" s="1"/>
-    </row>
-    <row r="731" ht="15.75" customHeight="1">
-      <c r="B731" s="1"/>
-    </row>
-    <row r="732" ht="15.75" customHeight="1">
-      <c r="B732" s="1"/>
-    </row>
-    <row r="733" ht="15.75" customHeight="1">
-      <c r="B733" s="1"/>
-    </row>
-    <row r="734" ht="15.75" customHeight="1">
-      <c r="B734" s="1"/>
-    </row>
-    <row r="735" ht="15.75" customHeight="1">
-      <c r="B735" s="1"/>
-    </row>
-    <row r="736" ht="15.75" customHeight="1">
-      <c r="B736" s="1"/>
-    </row>
-    <row r="737" ht="15.75" customHeight="1">
-      <c r="B737" s="1"/>
-    </row>
-    <row r="738" ht="15.75" customHeight="1">
-      <c r="B738" s="1"/>
-    </row>
-    <row r="739" ht="15.75" customHeight="1">
-      <c r="B739" s="1"/>
-    </row>
-    <row r="740" ht="15.75" customHeight="1">
-      <c r="B740" s="1"/>
-    </row>
-    <row r="741" ht="15.75" customHeight="1">
-      <c r="B741" s="1"/>
-    </row>
-    <row r="742" ht="15.75" customHeight="1">
-      <c r="B742" s="1"/>
-    </row>
-    <row r="743" ht="15.75" customHeight="1">
-      <c r="B743" s="1"/>
-    </row>
-    <row r="744" ht="15.75" customHeight="1">
-      <c r="B744" s="1"/>
-    </row>
-    <row r="745" ht="15.75" customHeight="1">
-      <c r="B745" s="1"/>
-    </row>
-    <row r="746" ht="15.75" customHeight="1">
-      <c r="B746" s="1"/>
-    </row>
-    <row r="747" ht="15.75" customHeight="1">
-      <c r="B747" s="1"/>
-    </row>
-    <row r="748" ht="15.75" customHeight="1">
-      <c r="B748" s="1"/>
-    </row>
-    <row r="749" ht="15.75" customHeight="1">
-      <c r="B749" s="1"/>
-    </row>
-    <row r="750" ht="15.75" customHeight="1">
-      <c r="B750" s="1"/>
-    </row>
-    <row r="751" ht="15.75" customHeight="1">
-      <c r="B751" s="1"/>
-    </row>
-    <row r="752" ht="15.75" customHeight="1">
-      <c r="B752" s="1"/>
-    </row>
-    <row r="753" ht="15.75" customHeight="1">
-      <c r="B753" s="1"/>
-    </row>
-    <row r="754" ht="15.75" customHeight="1">
-      <c r="B754" s="1"/>
-    </row>
-    <row r="755" ht="15.75" customHeight="1">
-      <c r="B755" s="1"/>
-    </row>
-    <row r="756" ht="15.75" customHeight="1">
-      <c r="B756" s="1"/>
-    </row>
-    <row r="757" ht="15.75" customHeight="1">
-      <c r="B757" s="1"/>
-    </row>
-    <row r="758" ht="15.75" customHeight="1">
-      <c r="B758" s="1"/>
-    </row>
-    <row r="759" ht="15.75" customHeight="1">
-      <c r="B759" s="1"/>
-    </row>
-    <row r="760" ht="15.75" customHeight="1">
-      <c r="B760" s="1"/>
-    </row>
-    <row r="761" ht="15.75" customHeight="1">
-      <c r="B761" s="1"/>
-    </row>
-    <row r="762" ht="15.75" customHeight="1">
-      <c r="B762" s="1"/>
-    </row>
-    <row r="763" ht="15.75" customHeight="1">
-      <c r="B763" s="1"/>
-    </row>
-    <row r="764" ht="15.75" customHeight="1">
-      <c r="B764" s="1"/>
-    </row>
-    <row r="765" ht="15.75" customHeight="1">
-      <c r="B765" s="1"/>
-    </row>
-    <row r="766" ht="15.75" customHeight="1">
-      <c r="B766" s="1"/>
-    </row>
-    <row r="767" ht="15.75" customHeight="1">
-      <c r="B767" s="1"/>
-    </row>
-    <row r="768" ht="15.75" customHeight="1">
-      <c r="B768" s="1"/>
-    </row>
-    <row r="769" ht="15.75" customHeight="1">
-      <c r="B769" s="1"/>
-    </row>
-    <row r="770" ht="15.75" customHeight="1">
-      <c r="B770" s="1"/>
-    </row>
-    <row r="771" ht="15.75" customHeight="1">
-      <c r="B771" s="1"/>
-    </row>
-    <row r="772" ht="15.75" customHeight="1">
-      <c r="B772" s="1"/>
-    </row>
-    <row r="773" ht="15.75" customHeight="1">
-      <c r="B773" s="1"/>
-    </row>
-    <row r="774" ht="15.75" customHeight="1">
-      <c r="B774" s="1"/>
-    </row>
-    <row r="775" ht="15.75" customHeight="1">
-      <c r="B775" s="1"/>
-    </row>
-    <row r="776" ht="15.75" customHeight="1">
-      <c r="B776" s="1"/>
-    </row>
-    <row r="777" ht="15.75" customHeight="1">
-      <c r="B777" s="1"/>
-    </row>
-    <row r="778" ht="15.75" customHeight="1">
-      <c r="B778" s="1"/>
-    </row>
-    <row r="779" ht="15.75" customHeight="1">
-      <c r="B779" s="1"/>
-    </row>
-    <row r="780" ht="15.75" customHeight="1">
-      <c r="B780" s="1"/>
-    </row>
-    <row r="781" ht="15.75" customHeight="1">
-      <c r="B781" s="1"/>
-    </row>
-    <row r="782" ht="15.75" customHeight="1">
-      <c r="B782" s="1"/>
-    </row>
-    <row r="783" ht="15.75" customHeight="1">
-      <c r="B783" s="1"/>
-    </row>
-    <row r="784" ht="15.75" customHeight="1">
-      <c r="B784" s="1"/>
-    </row>
-    <row r="785" ht="15.75" customHeight="1">
-      <c r="B785" s="1"/>
-    </row>
-    <row r="786" ht="15.75" customHeight="1">
-      <c r="B786" s="1"/>
-    </row>
-    <row r="787" ht="15.75" customHeight="1">
-      <c r="B787" s="1"/>
-    </row>
-    <row r="788" ht="15.75" customHeight="1">
-      <c r="B788" s="1"/>
-    </row>
-    <row r="789" ht="15.75" customHeight="1">
-      <c r="B789" s="1"/>
-    </row>
-    <row r="790" ht="15.75" customHeight="1">
-      <c r="B790" s="1"/>
-    </row>
-    <row r="791" ht="15.75" customHeight="1">
-      <c r="B791" s="1"/>
-    </row>
-    <row r="792" ht="15.75" customHeight="1">
-      <c r="B792" s="1"/>
-    </row>
-    <row r="793" ht="15.75" customHeight="1">
-      <c r="B793" s="1"/>
-    </row>
-    <row r="794" ht="15.75" customHeight="1">
-      <c r="B794" s="1"/>
-    </row>
-    <row r="795" ht="15.75" customHeight="1">
-      <c r="B795" s="1"/>
-    </row>
-    <row r="796" ht="15.75" customHeight="1">
-      <c r="B796" s="1"/>
-    </row>
-    <row r="797" ht="15.75" customHeight="1">
-      <c r="B797" s="1"/>
-    </row>
-    <row r="798" ht="15.75" customHeight="1">
-      <c r="B798" s="1"/>
-    </row>
-    <row r="799" ht="15.75" customHeight="1">
-      <c r="B799" s="1"/>
-    </row>
-    <row r="800" ht="15.75" customHeight="1">
-      <c r="B800" s="1"/>
-    </row>
-    <row r="801" ht="15.75" customHeight="1">
-      <c r="B801" s="1"/>
-    </row>
-    <row r="802" ht="15.75" customHeight="1">
-      <c r="B802" s="1"/>
-    </row>
-    <row r="803" ht="15.75" customHeight="1">
-      <c r="B803" s="1"/>
-    </row>
-    <row r="804" ht="15.75" customHeight="1">
-      <c r="B804" s="1"/>
-    </row>
-    <row r="805" ht="15.75" customHeight="1">
-      <c r="B805" s="1"/>
-    </row>
-    <row r="806" ht="15.75" customHeight="1">
-      <c r="B806" s="1"/>
-    </row>
-    <row r="807" ht="15.75" customHeight="1">
-      <c r="B807" s="1"/>
-    </row>
-    <row r="808" ht="15.75" customHeight="1">
-      <c r="B808" s="1"/>
-    </row>
-    <row r="809" ht="15.75" customHeight="1">
-      <c r="B809" s="1"/>
-    </row>
-    <row r="810" ht="15.75" customHeight="1">
-      <c r="B810" s="1"/>
-    </row>
-    <row r="811" ht="15.75" customHeight="1">
-      <c r="B811" s="1"/>
-    </row>
-    <row r="812" ht="15.75" customHeight="1">
-      <c r="B812" s="1"/>
-    </row>
-    <row r="813" ht="15.75" customHeight="1">
-      <c r="B813" s="1"/>
-    </row>
-    <row r="814" ht="15.75" customHeight="1">
-      <c r="B814" s="1"/>
-    </row>
-    <row r="815" ht="15.75" customHeight="1">
-      <c r="B815" s="1"/>
-    </row>
-    <row r="816" ht="15.75" customHeight="1">
-      <c r="B816" s="1"/>
-    </row>
-    <row r="817" ht="15.75" customHeight="1">
-      <c r="B817" s="1"/>
-    </row>
-    <row r="818" ht="15.75" customHeight="1">
-      <c r="B818" s="1"/>
-    </row>
-    <row r="819" ht="15.75" customHeight="1">
-      <c r="B819" s="1"/>
-    </row>
-    <row r="820" ht="15.75" customHeight="1">
-      <c r="B820" s="1"/>
-    </row>
-    <row r="821" ht="15.75" customHeight="1">
-      <c r="B821" s="1"/>
-    </row>
-    <row r="822" ht="15.75" customHeight="1">
-      <c r="B822" s="1"/>
-    </row>
-    <row r="823" ht="15.75" customHeight="1">
-      <c r="B823" s="1"/>
-    </row>
-    <row r="824" ht="15.75" customHeight="1">
-      <c r="B824" s="1"/>
-    </row>
-    <row r="825" ht="15.75" customHeight="1">
-      <c r="B825" s="1"/>
-    </row>
-    <row r="826" ht="15.75" customHeight="1">
-      <c r="B826" s="1"/>
-    </row>
-    <row r="827" ht="15.75" customHeight="1">
-      <c r="B827" s="1"/>
-    </row>
-    <row r="828" ht="15.75" customHeight="1">
-      <c r="B828" s="1"/>
-    </row>
-    <row r="829" ht="15.75" customHeight="1">
-      <c r="B829" s="1"/>
-    </row>
-    <row r="830" ht="15.75" customHeight="1">
-      <c r="B830" s="1"/>
-    </row>
-    <row r="831" ht="15.75" customHeight="1">
-      <c r="B831" s="1"/>
-    </row>
-    <row r="832" ht="15.75" customHeight="1">
-      <c r="B832" s="1"/>
-    </row>
-    <row r="833" ht="15.75" customHeight="1">
-      <c r="B833" s="1"/>
-    </row>
-    <row r="834" ht="15.75" customHeight="1">
-      <c r="B834" s="1"/>
-    </row>
-    <row r="835" ht="15.75" customHeight="1">
-      <c r="B835" s="1"/>
-    </row>
-    <row r="836" ht="15.75" customHeight="1">
-      <c r="B836" s="1"/>
-    </row>
-    <row r="837" ht="15.75" customHeight="1">
-      <c r="B837" s="1"/>
-    </row>
-    <row r="838" ht="15.75" customHeight="1">
-      <c r="B838" s="1"/>
-    </row>
-    <row r="839" ht="15.75" customHeight="1">
-      <c r="B839" s="1"/>
-    </row>
-    <row r="840" ht="15.75" customHeight="1">
-      <c r="B840" s="1"/>
-    </row>
-    <row r="841" ht="15.75" customHeight="1">
-      <c r="B841" s="1"/>
-    </row>
-    <row r="842" ht="15.75" customHeight="1">
-      <c r="B842" s="1"/>
-    </row>
-    <row r="843" ht="15.75" customHeight="1">
-      <c r="B843" s="1"/>
-    </row>
-    <row r="844" ht="15.75" customHeight="1">
-      <c r="B844" s="1"/>
-    </row>
-    <row r="845" ht="15.75" customHeight="1">
-      <c r="B845" s="1"/>
-    </row>
-    <row r="846" ht="15.75" customHeight="1">
-      <c r="B846" s="1"/>
-    </row>
-    <row r="847" ht="15.75" customHeight="1">
-      <c r="B847" s="1"/>
-    </row>
-    <row r="848" ht="15.75" customHeight="1">
-      <c r="B848" s="1"/>
-    </row>
-    <row r="849" ht="15.75" customHeight="1">
-      <c r="B849" s="1"/>
-    </row>
-    <row r="850" ht="15.75" customHeight="1">
-      <c r="B850" s="1"/>
-    </row>
-    <row r="851" ht="15.75" customHeight="1">
-      <c r="B851" s="1"/>
-    </row>
-    <row r="852" ht="15.75" customHeight="1">
-      <c r="B852" s="1"/>
-    </row>
-    <row r="853" ht="15.75" customHeight="1">
-      <c r="B853" s="1"/>
-    </row>
-    <row r="854" ht="15.75" customHeight="1">
-      <c r="B854" s="1"/>
-    </row>
-    <row r="855" ht="15.75" customHeight="1">
-      <c r="B855" s="1"/>
-    </row>
-    <row r="856" ht="15.75" customHeight="1">
-      <c r="B856" s="1"/>
-    </row>
-    <row r="857" ht="15.75" customHeight="1">
-      <c r="B857" s="1"/>
-    </row>
-    <row r="858" ht="15.75" customHeight="1">
-      <c r="B858" s="1"/>
-    </row>
-    <row r="859" ht="15.75" customHeight="1">
-      <c r="B859" s="1"/>
-    </row>
-    <row r="860" ht="15.75" customHeight="1">
-      <c r="B860" s="1"/>
-    </row>
-    <row r="861" ht="15.75" customHeight="1">
-      <c r="B861" s="1"/>
-    </row>
-    <row r="862" ht="15.75" customHeight="1">
-      <c r="B862" s="1"/>
-    </row>
-    <row r="863" ht="15.75" customHeight="1">
-      <c r="B863" s="1"/>
-    </row>
-    <row r="864" ht="15.75" customHeight="1">
-      <c r="B864" s="1"/>
-    </row>
-    <row r="865" ht="15.75" customHeight="1">
-      <c r="B865" s="1"/>
-    </row>
-    <row r="866" ht="15.75" customHeight="1">
-      <c r="B866" s="1"/>
-    </row>
-    <row r="867" ht="15.75" customHeight="1">
-      <c r="B867" s="1"/>
-    </row>
-    <row r="868" ht="15.75" customHeight="1">
-      <c r="B868" s="1"/>
-    </row>
-    <row r="869" ht="15.75" customHeight="1">
-      <c r="B869" s="1"/>
-    </row>
-    <row r="870" ht="15.75" customHeight="1">
-      <c r="B870" s="1"/>
-    </row>
-    <row r="871" ht="15.75" customHeight="1">
-      <c r="B871" s="1"/>
-    </row>
-    <row r="872" ht="15.75" customHeight="1">
-      <c r="B872" s="1"/>
-    </row>
-    <row r="873" ht="15.75" customHeight="1">
-      <c r="B873" s="1"/>
-    </row>
-    <row r="874" ht="15.75" customHeight="1">
-      <c r="B874" s="1"/>
-    </row>
-    <row r="875" ht="15.75" customHeight="1">
-      <c r="B875" s="1"/>
-    </row>
-    <row r="876" ht="15.75" customHeight="1">
-      <c r="B876" s="1"/>
-    </row>
-    <row r="877" ht="15.75" customHeight="1">
-      <c r="B877" s="1"/>
-    </row>
-    <row r="878" ht="15.75" customHeight="1">
-      <c r="B878" s="1"/>
-    </row>
-    <row r="879" ht="15.75" customHeight="1">
-      <c r="B879" s="1"/>
-    </row>
-    <row r="880" ht="15.75" customHeight="1">
-      <c r="B880" s="1"/>
-    </row>
-    <row r="881" ht="15.75" customHeight="1">
-      <c r="B881" s="1"/>
-    </row>
-    <row r="882" ht="15.75" customHeight="1">
-      <c r="B882" s="1"/>
-    </row>
-    <row r="883" ht="15.75" customHeight="1">
-      <c r="B883" s="1"/>
-    </row>
-    <row r="884" ht="15.75" customHeight="1">
-      <c r="B884" s="1"/>
-    </row>
-    <row r="885" ht="15.75" customHeight="1">
-      <c r="B885" s="1"/>
-    </row>
-    <row r="886" ht="15.75" customHeight="1">
-      <c r="B886" s="1"/>
-    </row>
-    <row r="887" ht="15.75" customHeight="1">
-      <c r="B887" s="1"/>
-    </row>
-    <row r="888" ht="15.75" customHeight="1">
-      <c r="B888" s="1"/>
-    </row>
-    <row r="889" ht="15.75" customHeight="1">
-      <c r="B889" s="1"/>
-    </row>
-    <row r="890" ht="15.75" customHeight="1">
-      <c r="B890" s="1"/>
-    </row>
-    <row r="891" ht="15.75" customHeight="1">
-      <c r="B891" s="1"/>
-    </row>
-    <row r="892" ht="15.75" customHeight="1">
-      <c r="B892" s="1"/>
-    </row>
-    <row r="893" ht="15.75" customHeight="1">
-      <c r="B893" s="1"/>
-    </row>
-    <row r="894" ht="15.75" customHeight="1">
-      <c r="B894" s="1"/>
-    </row>
-    <row r="895" ht="15.75" customHeight="1">
-      <c r="B895" s="1"/>
-    </row>
-    <row r="896" ht="15.75" customHeight="1">
-      <c r="B896" s="1"/>
-    </row>
-    <row r="897" ht="15.75" customHeight="1">
-      <c r="B897" s="1"/>
-    </row>
-    <row r="898" ht="15.75" customHeight="1">
-      <c r="B898" s="1"/>
-    </row>
-    <row r="899" ht="15.75" customHeight="1">
-      <c r="B899" s="1"/>
-    </row>
-    <row r="900" ht="15.75" customHeight="1">
-      <c r="B900" s="1"/>
-    </row>
-    <row r="901" ht="15.75" customHeight="1">
-      <c r="B901" s="1"/>
-    </row>
-    <row r="902" ht="15.75" customHeight="1">
-      <c r="B902" s="1"/>
-    </row>
-    <row r="903" ht="15.75" customHeight="1">
-      <c r="B903" s="1"/>
-    </row>
-    <row r="904" ht="15.75" customHeight="1">
-      <c r="B904" s="1"/>
-    </row>
-    <row r="905" ht="15.75" customHeight="1">
-      <c r="B905" s="1"/>
-    </row>
-    <row r="906" ht="15.75" customHeight="1">
-      <c r="B906" s="1"/>
-    </row>
-    <row r="907" ht="15.75" customHeight="1">
-      <c r="B907" s="1"/>
-    </row>
-    <row r="908" ht="15.75" customHeight="1">
-      <c r="B908" s="1"/>
-    </row>
-    <row r="909" ht="15.75" customHeight="1">
-      <c r="B909" s="1"/>
-    </row>
-    <row r="910" ht="15.75" customHeight="1">
-      <c r="B910" s="1"/>
-    </row>
-    <row r="911" ht="15.75" customHeight="1">
-      <c r="B911" s="1"/>
-    </row>
-    <row r="912" ht="15.75" customHeight="1">
-      <c r="B912" s="1"/>
-    </row>
-    <row r="913" ht="15.75" customHeight="1">
-      <c r="B913" s="1"/>
-    </row>
-    <row r="914" ht="15.75" customHeight="1">
-      <c r="B914" s="1"/>
-    </row>
-    <row r="915" ht="15.75" customHeight="1">
-      <c r="B915" s="1"/>
-    </row>
-    <row r="916" ht="15.75" customHeight="1">
-      <c r="B916" s="1"/>
-    </row>
-    <row r="917" ht="15.75" customHeight="1">
-      <c r="B917" s="1"/>
-    </row>
-    <row r="918" ht="15.75" customHeight="1">
-      <c r="B918" s="1"/>
-    </row>
-    <row r="919" ht="15.75" customHeight="1">
-      <c r="B919" s="1"/>
-    </row>
-    <row r="920" ht="15.75" customHeight="1">
-      <c r="B920" s="1"/>
-    </row>
-    <row r="921" ht="15.75" customHeight="1">
-      <c r="B921" s="1"/>
-    </row>
-    <row r="922" ht="15.75" customHeight="1">
-      <c r="B922" s="1"/>
-    </row>
-    <row r="923" ht="15.75" customHeight="1">
-      <c r="B923" s="1"/>
-    </row>
-    <row r="924" ht="15.75" customHeight="1">
-      <c r="B924" s="1"/>
-    </row>
-    <row r="925" ht="15.75" customHeight="1">
-      <c r="B925" s="1"/>
-    </row>
-    <row r="926" ht="15.75" customHeight="1">
-      <c r="B926" s="1"/>
-    </row>
-    <row r="927" ht="15.75" customHeight="1">
-      <c r="B927" s="1"/>
-    </row>
-    <row r="928" ht="15.75" customHeight="1">
-      <c r="B928" s="1"/>
-    </row>
-    <row r="929" ht="15.75" customHeight="1">
-      <c r="B929" s="1"/>
-    </row>
-    <row r="930" ht="15.75" customHeight="1">
-      <c r="B930" s="1"/>
-    </row>
-    <row r="931" ht="15.75" customHeight="1">
-      <c r="B931" s="1"/>
-    </row>
-    <row r="932" ht="15.75" customHeight="1">
-      <c r="B932" s="1"/>
-    </row>
-    <row r="933" ht="15.75" customHeight="1">
-      <c r="B933" s="1"/>
-    </row>
-    <row r="934" ht="15.75" customHeight="1">
-      <c r="B934" s="1"/>
-    </row>
-    <row r="935" ht="15.75" customHeight="1">
-      <c r="B935" s="1"/>
-    </row>
-    <row r="936" ht="15.75" customHeight="1">
-      <c r="B936" s="1"/>
-    </row>
-    <row r="937" ht="15.75" customHeight="1">
-      <c r="B937" s="1"/>
-    </row>
-    <row r="938" ht="15.75" customHeight="1">
-      <c r="B938" s="1"/>
-    </row>
-    <row r="939" ht="15.75" customHeight="1">
-      <c r="B939" s="1"/>
-    </row>
-    <row r="940" ht="15.75" customHeight="1">
-      <c r="B940" s="1"/>
-    </row>
-    <row r="941" ht="15.75" customHeight="1">
-      <c r="B941" s="1"/>
-    </row>
-    <row r="942" ht="15.75" customHeight="1">
-      <c r="B942" s="1"/>
-    </row>
-    <row r="943" ht="15.75" customHeight="1">
-      <c r="B943" s="1"/>
-    </row>
-    <row r="944" ht="15.75" customHeight="1">
-      <c r="B944" s="1"/>
-    </row>
-    <row r="945" ht="15.75" customHeight="1">
-      <c r="B945" s="1"/>
-    </row>
-    <row r="946" ht="15.75" customHeight="1">
-      <c r="B946" s="1"/>
-    </row>
-    <row r="947" ht="15.75" customHeight="1">
-      <c r="B947" s="1"/>
-    </row>
-    <row r="948" ht="15.75" customHeight="1">
-      <c r="B948" s="1"/>
-    </row>
-    <row r="949" ht="15.75" customHeight="1">
-      <c r="B949" s="1"/>
-    </row>
-    <row r="950" ht="15.75" customHeight="1">
-      <c r="B950" s="1"/>
-    </row>
-    <row r="951" ht="15.75" customHeight="1">
-      <c r="B951" s="1"/>
-    </row>
-    <row r="952" ht="15.75" customHeight="1">
-      <c r="B952" s="1"/>
-    </row>
-    <row r="953" ht="15.75" customHeight="1">
-      <c r="B953" s="1"/>
-    </row>
-    <row r="954" ht="15.75" customHeight="1">
-      <c r="B954" s="1"/>
-    </row>
-    <row r="955" ht="15.75" customHeight="1">
-      <c r="B955" s="1"/>
-    </row>
-    <row r="956" ht="15.75" customHeight="1">
-      <c r="B956" s="1"/>
-    </row>
-    <row r="957" ht="15.75" customHeight="1">
-      <c r="B957" s="1"/>
-    </row>
-    <row r="958" ht="15.75" customHeight="1">
-      <c r="B958" s="1"/>
-    </row>
-    <row r="959" ht="15.75" customHeight="1">
-      <c r="B959" s="1"/>
-    </row>
-    <row r="960" ht="15.75" customHeight="1">
-      <c r="B960" s="1"/>
-    </row>
-    <row r="961" ht="15.75" customHeight="1">
-      <c r="B961" s="1"/>
-    </row>
-    <row r="962" ht="15.75" customHeight="1">
-      <c r="B962" s="1"/>
-    </row>
-    <row r="963" ht="15.75" customHeight="1">
-      <c r="B963" s="1"/>
-    </row>
-    <row r="964" ht="15.75" customHeight="1">
-      <c r="B964" s="1"/>
-    </row>
-    <row r="965" ht="15.75" customHeight="1">
-      <c r="B965" s="1"/>
-    </row>
-    <row r="966" ht="15.75" customHeight="1">
-      <c r="B966" s="1"/>
-    </row>
-    <row r="967" ht="15.75" customHeight="1">
-      <c r="B967" s="1"/>
-    </row>
-    <row r="968" ht="15.75" customHeight="1">
-      <c r="B968" s="1"/>
-    </row>
-    <row r="969" ht="15.75" customHeight="1">
-      <c r="B969" s="1"/>
-    </row>
-    <row r="970" ht="15.75" customHeight="1">
-      <c r="B970" s="1"/>
-    </row>
-    <row r="971" ht="15.75" customHeight="1">
-      <c r="B971" s="1"/>
-    </row>
-    <row r="972" ht="15.75" customHeight="1">
-      <c r="B972" s="1"/>
-    </row>
-    <row r="973" ht="15.75" customHeight="1">
-      <c r="B973" s="1"/>
-    </row>
-    <row r="974" ht="15.75" customHeight="1">
-      <c r="B974" s="1"/>
-    </row>
-    <row r="975" ht="15.75" customHeight="1">
-      <c r="B975" s="1"/>
-    </row>
-    <row r="976" ht="15.75" customHeight="1">
-      <c r="B976" s="1"/>
-    </row>
-    <row r="977" ht="15.75" customHeight="1">
-      <c r="B977" s="1"/>
-    </row>
-    <row r="978" ht="15.75" customHeight="1">
-      <c r="B978" s="1"/>
-    </row>
-    <row r="979" ht="15.75" customHeight="1">
-      <c r="B979" s="1"/>
-    </row>
-    <row r="980" ht="15.75" customHeight="1">
-      <c r="B980" s="1"/>
-    </row>
-    <row r="981" ht="15.75" customHeight="1">
-      <c r="B981" s="1"/>
-    </row>
-    <row r="982" ht="15.75" customHeight="1">
-      <c r="B982" s="1"/>
-    </row>
-    <row r="983" ht="15.75" customHeight="1">
-      <c r="B983" s="1"/>
-    </row>
-    <row r="984" ht="15.75" customHeight="1">
-      <c r="B984" s="1"/>
-    </row>
-    <row r="985" ht="15.75" customHeight="1">
-      <c r="B985" s="1"/>
-    </row>
-    <row r="986" ht="15.75" customHeight="1">
-      <c r="B986" s="1"/>
-    </row>
-    <row r="987" ht="15.75" customHeight="1">
-      <c r="B987" s="1"/>
-    </row>
-    <row r="988" ht="15.75" customHeight="1">
-      <c r="B988" s="1"/>
-    </row>
-    <row r="989" ht="15.75" customHeight="1">
-      <c r="B989" s="1"/>
-    </row>
-    <row r="990" ht="15.75" customHeight="1">
-      <c r="B990" s="1"/>
-    </row>
-    <row r="991" ht="15.75" customHeight="1">
-      <c r="B991" s="1"/>
-    </row>
-    <row r="992" ht="15.75" customHeight="1">
-      <c r="B992" s="1"/>
-    </row>
-    <row r="993" ht="15.75" customHeight="1">
-      <c r="B993" s="1"/>
-    </row>
-    <row r="994" ht="15.75" customHeight="1">
-      <c r="B994" s="1"/>
-    </row>
-    <row r="995" ht="15.75" customHeight="1">
-      <c r="B995" s="1"/>
-    </row>
-    <row r="996" ht="15.75" customHeight="1">
-      <c r="B996" s="1"/>
-    </row>
-    <row r="997" ht="15.75" customHeight="1">
-      <c r="B997" s="1"/>
-    </row>
-    <row r="998" ht="15.75" customHeight="1">
-      <c r="B998" s="1"/>
-    </row>
-    <row r="999" ht="15.75" customHeight="1">
-      <c r="B999" s="1"/>
-    </row>
-    <row r="1000" ht="15.75" customHeight="1">
-      <c r="B1000" s="1"/>
-    </row>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="E53:F53"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/table.xlsx
+++ b/table.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="140">
   <si>
     <t>№</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>Цена, тенге с НДС</t>
-  </si>
-  <si>
-    <t>section_id</t>
   </si>
   <si>
     <t>ШКАФЫ ITPARK 19"</t>
@@ -440,11 +437,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -494,10 +490,6 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -629,7 +621,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -676,10 +668,7 @@
     <xf borderId="1" fillId="0" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -689,7 +678,7 @@
     <xf borderId="12" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -919,8 +908,7 @@
     <col customWidth="1" min="3" max="3" width="80.5"/>
     <col customWidth="1" min="4" max="4" width="12.5"/>
     <col customWidth="1" min="5" max="5" width="20.75"/>
-    <col customWidth="1" min="6" max="6" width="10.75"/>
-    <col customWidth="1" min="7" max="25" width="7.63"/>
+    <col customWidth="1" min="6" max="24" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -945,9 +933,7 @@
       <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -966,17 +952,16 @@
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
     </row>
     <row r="4" ht="24.0" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -995,17 +980,16 @@
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
     </row>
     <row r="5" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A5" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -1024,28 +1008,25 @@
       <c r="V5" s="14"/>
       <c r="W5" s="14"/>
       <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
     </row>
     <row r="6" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A6" s="15">
         <v>1.0</v>
       </c>
       <c r="B6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="D6" s="18" t="s">
         <v>9</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>10</v>
       </c>
       <c r="E6" s="19">
         <v>25500.0</v>
       </c>
-      <c r="F6" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G6" s="21"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -1063,28 +1044,25 @@
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
     </row>
     <row r="7" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A7" s="15">
         <v>2.0</v>
       </c>
       <c r="B7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>12</v>
-      </c>
       <c r="D7" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="19">
         <v>25500.0</v>
       </c>
-      <c r="F7" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G7" s="21"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -1102,28 +1080,25 @@
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
     </row>
     <row r="8" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A8" s="15">
         <v>3.0</v>
       </c>
       <c r="B8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>14</v>
-      </c>
       <c r="D8" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="19">
         <v>25500.0</v>
       </c>
-      <c r="F8" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G8" s="21"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -1141,28 +1116,25 @@
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
     </row>
     <row r="9" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A9" s="15">
         <v>4.0</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="D9" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="19">
         <v>30000.0</v>
       </c>
-      <c r="F9" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G9" s="21"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -1180,28 +1152,25 @@
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
     </row>
     <row r="10" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A10" s="15">
         <v>5.0</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>18</v>
-      </c>
       <c r="D10" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="19">
         <v>30000.0</v>
       </c>
-      <c r="F10" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G10" s="21"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -1219,28 +1188,25 @@
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
     </row>
     <row r="11" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A11" s="15">
         <v>6.0</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>20</v>
-      </c>
       <c r="D11" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" s="19">
         <v>30500.0</v>
       </c>
-      <c r="F11" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G11" s="21"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -1258,28 +1224,25 @@
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
     </row>
     <row r="12" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A12" s="15">
         <v>7.0</v>
       </c>
       <c r="B12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>22</v>
-      </c>
       <c r="D12" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" s="19">
         <v>30500.0</v>
       </c>
-      <c r="F12" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G12" s="21"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -1297,28 +1260,25 @@
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
     </row>
     <row r="13" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A13" s="15">
         <v>8.0</v>
       </c>
       <c r="B13" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>24</v>
-      </c>
       <c r="D13" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="19">
         <v>36500.0</v>
       </c>
-      <c r="F13" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G13" s="21"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -1336,28 +1296,25 @@
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
     </row>
     <row r="14" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A14" s="15">
         <v>9.0</v>
       </c>
       <c r="B14" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>26</v>
-      </c>
       <c r="D14" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" s="19">
         <v>36500.0</v>
       </c>
-      <c r="F14" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G14" s="21"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -1375,28 +1332,25 @@
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
     </row>
     <row r="15" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A15" s="15">
         <v>10.0</v>
       </c>
       <c r="B15" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>28</v>
-      </c>
       <c r="D15" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" s="19">
         <v>35000.0</v>
       </c>
-      <c r="F15" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G15" s="21"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -1414,28 +1368,25 @@
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
     </row>
     <row r="16" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A16" s="15">
         <v>11.0</v>
       </c>
       <c r="B16" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>30</v>
-      </c>
       <c r="D16" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" s="19">
         <v>35000.0</v>
       </c>
-      <c r="F16" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G16" s="21"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -1453,28 +1404,25 @@
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
     </row>
     <row r="17" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A17" s="15">
         <v>12.0</v>
       </c>
       <c r="B17" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>32</v>
-      </c>
       <c r="D17" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" s="19">
         <v>44500.0</v>
       </c>
-      <c r="F17" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G17" s="21"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -1492,28 +1440,25 @@
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
     </row>
     <row r="18" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A18" s="15">
         <v>13.0</v>
       </c>
       <c r="B18" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>34</v>
-      </c>
       <c r="D18" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18" s="19">
         <v>44500.0</v>
       </c>
-      <c r="F18" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G18" s="21"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -1531,28 +1476,25 @@
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
     </row>
     <row r="19" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A19" s="15">
         <v>14.0</v>
       </c>
       <c r="B19" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>36</v>
-      </c>
       <c r="D19" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19" s="19">
         <v>46000.0</v>
       </c>
-      <c r="F19" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G19" s="21"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -1570,28 +1512,25 @@
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
     </row>
     <row r="20" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A20" s="15">
         <v>15.0</v>
       </c>
       <c r="B20" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>38</v>
-      </c>
       <c r="D20" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20" s="19">
         <v>46000.0</v>
       </c>
-      <c r="F20" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G20" s="21"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -1609,28 +1548,25 @@
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
     </row>
     <row r="21" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A21" s="15">
         <v>16.0</v>
       </c>
       <c r="B21" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>40</v>
-      </c>
       <c r="D21" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21" s="19">
         <v>51000.0</v>
       </c>
-      <c r="F21" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G21" s="21"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -1648,28 +1584,25 @@
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
     </row>
     <row r="22" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A22" s="15">
         <v>17.0</v>
       </c>
       <c r="B22" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>42</v>
-      </c>
       <c r="D22" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22" s="19">
         <v>47000.0</v>
       </c>
-      <c r="F22" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G22" s="21"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -1687,18 +1620,17 @@
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
     </row>
     <row r="23" ht="33.0" customHeight="1" outlineLevel="1">
-      <c r="A23" s="22" t="s">
-        <v>43</v>
+      <c r="A23" s="21" t="s">
+        <v>42</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="7"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
@@ -1716,28 +1648,25 @@
       <c r="V23" s="14"/>
       <c r="W23" s="14"/>
       <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
     </row>
     <row r="24" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A24" s="15">
         <v>1.0</v>
       </c>
       <c r="B24" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="17" t="s">
-        <v>45</v>
-      </c>
       <c r="D24" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E24" s="19">
         <v>64000.0</v>
       </c>
-      <c r="F24" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G24" s="21"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -1755,28 +1684,25 @@
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
     </row>
     <row r="25" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A25" s="15">
         <v>2.0</v>
       </c>
       <c r="B25" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="17" t="s">
-        <v>47</v>
-      </c>
       <c r="D25" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E25" s="19">
         <v>100000.0</v>
       </c>
-      <c r="F25" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G25" s="21"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
@@ -1794,28 +1720,25 @@
       <c r="V25" s="7"/>
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
     </row>
     <row r="26" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A26" s="15">
         <v>3.0</v>
       </c>
       <c r="B26" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="17" t="s">
-        <v>49</v>
-      </c>
       <c r="D26" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E26" s="19">
         <v>86500.0</v>
       </c>
-      <c r="F26" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G26" s="21"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
@@ -1833,28 +1756,25 @@
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
     </row>
     <row r="27" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A27" s="15">
         <v>4.0</v>
       </c>
       <c r="B27" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="17" t="s">
-        <v>51</v>
-      </c>
       <c r="D27" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E27" s="19">
         <v>90000.0</v>
       </c>
-      <c r="F27" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G27" s="21"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
@@ -1872,28 +1792,25 @@
       <c r="V27" s="7"/>
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
     </row>
     <row r="28" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A28" s="15">
         <v>5.0</v>
       </c>
       <c r="B28" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="17" t="s">
-        <v>53</v>
-      </c>
       <c r="D28" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E28" s="19">
         <v>100500.0</v>
       </c>
-      <c r="F28" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G28" s="21"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
@@ -1911,28 +1828,25 @@
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
-      <c r="Y28" s="7"/>
     </row>
     <row r="29" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A29" s="15">
         <v>6.0</v>
       </c>
       <c r="B29" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="17" t="s">
-        <v>55</v>
-      </c>
       <c r="D29" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E29" s="19">
         <v>110000.0</v>
       </c>
-      <c r="F29" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G29" s="21"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
@@ -1950,28 +1864,25 @@
       <c r="V29" s="7"/>
       <c r="W29" s="7"/>
       <c r="X29" s="7"/>
-      <c r="Y29" s="7"/>
     </row>
     <row r="30" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A30" s="15">
         <v>7.0</v>
       </c>
       <c r="B30" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="17" t="s">
-        <v>57</v>
-      </c>
       <c r="D30" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E30" s="19">
         <v>123500.0</v>
       </c>
-      <c r="F30" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G30" s="21"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
@@ -1989,28 +1900,25 @@
       <c r="V30" s="7"/>
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
     </row>
     <row r="31" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A31" s="15">
         <v>8.0</v>
       </c>
       <c r="B31" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="17" t="s">
-        <v>59</v>
-      </c>
       <c r="D31" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E31" s="19">
         <v>133000.0</v>
       </c>
-      <c r="F31" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G31" s="21"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
@@ -2028,28 +1936,25 @@
       <c r="V31" s="7"/>
       <c r="W31" s="7"/>
       <c r="X31" s="7"/>
-      <c r="Y31" s="7"/>
     </row>
     <row r="32" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A32" s="15">
         <v>9.0</v>
       </c>
       <c r="B32" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="17" t="s">
-        <v>61</v>
-      </c>
       <c r="D32" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E32" s="19">
         <v>87000.0</v>
       </c>
-      <c r="F32" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G32" s="21"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
@@ -2067,28 +1972,25 @@
       <c r="V32" s="7"/>
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
-      <c r="Y32" s="7"/>
     </row>
     <row r="33" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A33" s="15">
         <v>10.0</v>
       </c>
       <c r="B33" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="17" t="s">
-        <v>63</v>
-      </c>
       <c r="D33" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E33" s="19">
         <v>95000.0</v>
       </c>
-      <c r="F33" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G33" s="21"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
@@ -2106,28 +2008,25 @@
       <c r="V33" s="7"/>
       <c r="W33" s="7"/>
       <c r="X33" s="7"/>
-      <c r="Y33" s="7"/>
     </row>
     <row r="34" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A34" s="15">
         <v>11.0</v>
       </c>
       <c r="B34" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="17" t="s">
-        <v>65</v>
-      </c>
       <c r="D34" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E34" s="19">
         <v>130000.0</v>
       </c>
-      <c r="F34" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G34" s="21"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
@@ -2145,28 +2044,25 @@
       <c r="V34" s="7"/>
       <c r="W34" s="7"/>
       <c r="X34" s="7"/>
-      <c r="Y34" s="7"/>
     </row>
     <row r="35" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A35" s="15">
         <v>12.0</v>
       </c>
       <c r="B35" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="17" t="s">
-        <v>67</v>
-      </c>
       <c r="D35" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E35" s="19">
         <v>140000.0</v>
       </c>
-      <c r="F35" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G35" s="21"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
@@ -2184,28 +2080,25 @@
       <c r="V35" s="7"/>
       <c r="W35" s="7"/>
       <c r="X35" s="7"/>
-      <c r="Y35" s="7"/>
     </row>
     <row r="36" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A36" s="15">
         <v>13.0</v>
       </c>
       <c r="B36" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="17" t="s">
-        <v>69</v>
-      </c>
       <c r="D36" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E36" s="19">
         <v>109000.0</v>
       </c>
-      <c r="F36" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G36" s="21"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
@@ -2223,28 +2116,25 @@
       <c r="V36" s="7"/>
       <c r="W36" s="7"/>
       <c r="X36" s="7"/>
-      <c r="Y36" s="7"/>
     </row>
     <row r="37" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A37" s="15">
         <v>14.0</v>
       </c>
       <c r="B37" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="17" t="s">
-        <v>71</v>
-      </c>
       <c r="D37" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E37" s="19">
         <v>119000.0</v>
       </c>
-      <c r="F37" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G37" s="21"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
@@ -2262,28 +2152,25 @@
       <c r="V37" s="7"/>
       <c r="W37" s="7"/>
       <c r="X37" s="7"/>
-      <c r="Y37" s="7"/>
     </row>
     <row r="38" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A38" s="15">
         <v>15.0</v>
       </c>
       <c r="B38" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="17" t="s">
-        <v>73</v>
-      </c>
       <c r="D38" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E38" s="19">
         <v>135500.0</v>
       </c>
-      <c r="F38" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G38" s="21"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
@@ -2301,28 +2188,25 @@
       <c r="V38" s="7"/>
       <c r="W38" s="7"/>
       <c r="X38" s="7"/>
-      <c r="Y38" s="7"/>
     </row>
     <row r="39" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A39" s="15">
         <v>16.0</v>
       </c>
       <c r="B39" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="17" t="s">
-        <v>75</v>
-      </c>
       <c r="D39" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E39" s="19">
         <v>144000.0</v>
       </c>
-      <c r="F39" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G39" s="21"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
@@ -2340,28 +2224,25 @@
       <c r="V39" s="7"/>
       <c r="W39" s="7"/>
       <c r="X39" s="7"/>
-      <c r="Y39" s="7"/>
     </row>
     <row r="40" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A40" s="15">
         <v>17.0</v>
       </c>
       <c r="B40" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="17" t="s">
-        <v>77</v>
-      </c>
       <c r="D40" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E40" s="19">
         <v>117500.0</v>
       </c>
-      <c r="F40" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G40" s="21"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
@@ -2379,28 +2260,25 @@
       <c r="V40" s="7"/>
       <c r="W40" s="7"/>
       <c r="X40" s="7"/>
-      <c r="Y40" s="7"/>
     </row>
     <row r="41" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A41" s="15">
         <v>18.0</v>
       </c>
       <c r="B41" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="17" t="s">
-        <v>79</v>
-      </c>
       <c r="D41" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E41" s="19">
         <v>146000.0</v>
       </c>
-      <c r="F41" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G41" s="21"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
@@ -2418,28 +2296,25 @@
       <c r="V41" s="7"/>
       <c r="W41" s="7"/>
       <c r="X41" s="7"/>
-      <c r="Y41" s="7"/>
     </row>
     <row r="42" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A42" s="15">
         <v>19.0</v>
       </c>
       <c r="B42" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="17" t="s">
-        <v>81</v>
-      </c>
       <c r="D42" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E42" s="19">
         <v>130500.0</v>
       </c>
-      <c r="F42" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G42" s="21"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
@@ -2457,28 +2332,25 @@
       <c r="V42" s="7"/>
       <c r="W42" s="7"/>
       <c r="X42" s="7"/>
-      <c r="Y42" s="7"/>
     </row>
     <row r="43" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A43" s="15">
         <v>20.0</v>
       </c>
       <c r="B43" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="17" t="s">
-        <v>83</v>
-      </c>
       <c r="D43" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E43" s="19">
         <v>143000.0</v>
       </c>
-      <c r="F43" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G43" s="21"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
@@ -2496,28 +2368,25 @@
       <c r="V43" s="7"/>
       <c r="W43" s="7"/>
       <c r="X43" s="7"/>
-      <c r="Y43" s="7"/>
     </row>
     <row r="44" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A44" s="15">
         <v>21.0</v>
       </c>
       <c r="B44" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="17" t="s">
-        <v>85</v>
-      </c>
       <c r="D44" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E44" s="19">
         <v>164500.0</v>
       </c>
-      <c r="F44" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G44" s="21"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
@@ -2535,28 +2404,25 @@
       <c r="V44" s="7"/>
       <c r="W44" s="7"/>
       <c r="X44" s="7"/>
-      <c r="Y44" s="7"/>
     </row>
     <row r="45" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A45" s="15">
         <v>22.0</v>
       </c>
       <c r="B45" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="17" t="s">
-        <v>87</v>
-      </c>
       <c r="D45" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E45" s="19">
         <v>175000.0</v>
       </c>
-      <c r="F45" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G45" s="21"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
@@ -2574,28 +2440,25 @@
       <c r="V45" s="7"/>
       <c r="W45" s="7"/>
       <c r="X45" s="7"/>
-      <c r="Y45" s="7"/>
     </row>
     <row r="46" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A46" s="15">
         <v>23.0</v>
       </c>
       <c r="B46" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C46" s="17" t="s">
-        <v>89</v>
-      </c>
       <c r="D46" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E46" s="19">
         <v>181000.0</v>
       </c>
-      <c r="F46" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G46" s="21"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
@@ -2613,28 +2476,25 @@
       <c r="V46" s="7"/>
       <c r="W46" s="7"/>
       <c r="X46" s="7"/>
-      <c r="Y46" s="7"/>
     </row>
     <row r="47" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A47" s="15">
         <v>24.0</v>
       </c>
       <c r="B47" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="17" t="s">
-        <v>91</v>
-      </c>
       <c r="D47" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E47" s="19">
         <v>190000.0</v>
       </c>
-      <c r="F47" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G47" s="21"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
@@ -2652,28 +2512,25 @@
       <c r="V47" s="7"/>
       <c r="W47" s="7"/>
       <c r="X47" s="7"/>
-      <c r="Y47" s="7"/>
     </row>
     <row r="48" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A48" s="15">
         <v>25.0</v>
       </c>
       <c r="B48" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C48" s="17" t="s">
-        <v>93</v>
-      </c>
       <c r="D48" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E48" s="19">
         <v>238500.0</v>
       </c>
-      <c r="F48" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G48" s="21"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
@@ -2691,28 +2548,25 @@
       <c r="V48" s="7"/>
       <c r="W48" s="7"/>
       <c r="X48" s="7"/>
-      <c r="Y48" s="7"/>
     </row>
     <row r="49" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A49" s="15">
         <v>26.0</v>
       </c>
       <c r="B49" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="17" t="s">
-        <v>95</v>
-      </c>
       <c r="D49" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E49" s="19">
         <v>250000.0</v>
       </c>
-      <c r="F49" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G49" s="21"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="7"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
@@ -2730,28 +2584,25 @@
       <c r="V49" s="7"/>
       <c r="W49" s="7"/>
       <c r="X49" s="7"/>
-      <c r="Y49" s="7"/>
     </row>
     <row r="50" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A50" s="15">
         <v>27.0</v>
       </c>
       <c r="B50" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C50" s="17" t="s">
-        <v>97</v>
-      </c>
       <c r="D50" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E50" s="19">
         <v>260000.0</v>
       </c>
-      <c r="F50" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G50" s="21"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="7"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
@@ -2769,28 +2620,25 @@
       <c r="V50" s="7"/>
       <c r="W50" s="7"/>
       <c r="X50" s="7"/>
-      <c r="Y50" s="7"/>
     </row>
     <row r="51" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A51" s="15">
         <v>28.0</v>
       </c>
       <c r="B51" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C51" s="17" t="s">
-        <v>99</v>
-      </c>
       <c r="D51" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E51" s="19">
         <v>270000.0</v>
       </c>
-      <c r="F51" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G51" s="21"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="7"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
@@ -2808,28 +2656,25 @@
       <c r="V51" s="7"/>
       <c r="W51" s="7"/>
       <c r="X51" s="7"/>
-      <c r="Y51" s="7"/>
     </row>
     <row r="52" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A52" s="15">
         <v>29.0</v>
       </c>
       <c r="B52" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C52" s="17" t="s">
-        <v>101</v>
-      </c>
       <c r="D52" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E52" s="19">
         <v>275000.0</v>
       </c>
-      <c r="F52" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G52" s="21"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
@@ -2847,18 +2692,17 @@
       <c r="V52" s="7"/>
       <c r="W52" s="7"/>
       <c r="X52" s="7"/>
-      <c r="Y52" s="7"/>
     </row>
     <row r="53" ht="16.5" customHeight="1" outlineLevel="1">
-      <c r="A53" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="7"/>
+      <c r="A53" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="14"/>
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
       <c r="J53" s="14"/>
@@ -2876,28 +2720,25 @@
       <c r="V53" s="14"/>
       <c r="W53" s="14"/>
       <c r="X53" s="14"/>
-      <c r="Y53" s="14"/>
     </row>
     <row r="54" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A54" s="15">
         <v>1.0</v>
       </c>
-      <c r="B54" s="26" t="s">
+      <c r="B54" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="C54" s="27" t="s">
+      <c r="D54" s="18" t="s">
         <v>104</v>
-      </c>
-      <c r="D54" s="18" t="s">
-        <v>105</v>
       </c>
       <c r="E54" s="19">
         <v>5900.0</v>
       </c>
-      <c r="F54" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G54" s="21"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="7"/>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
@@ -2915,28 +2756,25 @@
       <c r="V54" s="7"/>
       <c r="W54" s="7"/>
       <c r="X54" s="7"/>
-      <c r="Y54" s="7"/>
     </row>
     <row r="55" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A55" s="15">
         <v>2.0</v>
       </c>
-      <c r="B55" s="26" t="s">
+      <c r="B55" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="C55" s="27" t="s">
-        <v>107</v>
-      </c>
       <c r="D55" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E55" s="19">
         <v>2000.0</v>
       </c>
-      <c r="F55" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G55" s="21"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="7"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
@@ -2954,28 +2792,25 @@
       <c r="V55" s="7"/>
       <c r="W55" s="7"/>
       <c r="X55" s="7"/>
-      <c r="Y55" s="7"/>
     </row>
     <row r="56" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A56" s="15">
         <v>3.0</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B56" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C56" s="17" t="s">
-        <v>109</v>
-      </c>
       <c r="D56" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E56" s="19">
         <v>2200.0</v>
       </c>
-      <c r="F56" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G56" s="21"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="7"/>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
@@ -2993,28 +2828,25 @@
       <c r="V56" s="7"/>
       <c r="W56" s="7"/>
       <c r="X56" s="7"/>
-      <c r="Y56" s="7"/>
     </row>
     <row r="57" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A57" s="15">
         <v>4.0</v>
       </c>
-      <c r="B57" s="26" t="s">
+      <c r="B57" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="D57" s="18" t="s">
         <v>111</v>
-      </c>
-      <c r="D57" s="18" t="s">
-        <v>112</v>
       </c>
       <c r="E57" s="19">
         <v>700.0</v>
       </c>
-      <c r="F57" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G57" s="21"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="7"/>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
@@ -3032,28 +2864,25 @@
       <c r="V57" s="7"/>
       <c r="W57" s="7"/>
       <c r="X57" s="7"/>
-      <c r="Y57" s="7"/>
     </row>
     <row r="58" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A58" s="15">
         <v>5.0</v>
       </c>
-      <c r="B58" s="26" t="s">
+      <c r="B58" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="C58" s="27" t="s">
-        <v>114</v>
-      </c>
       <c r="D58" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E58" s="19">
         <v>3000.0</v>
       </c>
-      <c r="F58" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G58" s="21"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="7"/>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
@@ -3071,28 +2900,25 @@
       <c r="V58" s="7"/>
       <c r="W58" s="7"/>
       <c r="X58" s="7"/>
-      <c r="Y58" s="7"/>
     </row>
     <row r="59" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A59" s="15">
         <v>6.0</v>
       </c>
-      <c r="B59" s="26" t="s">
+      <c r="B59" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="C59" s="27" t="s">
-        <v>116</v>
-      </c>
       <c r="D59" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E59" s="19">
         <v>13000.0</v>
       </c>
-      <c r="F59" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G59" s="21"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="7"/>
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
@@ -3110,28 +2936,25 @@
       <c r="V59" s="7"/>
       <c r="W59" s="7"/>
       <c r="X59" s="7"/>
-      <c r="Y59" s="7"/>
     </row>
     <row r="60" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A60" s="15">
         <v>7.0</v>
       </c>
-      <c r="B60" s="26" t="s">
+      <c r="B60" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="C60" s="27" t="s">
-        <v>118</v>
-      </c>
       <c r="D60" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E60" s="19">
         <v>15000.0</v>
       </c>
-      <c r="F60" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G60" s="21"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="7"/>
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
@@ -3149,28 +2972,25 @@
       <c r="V60" s="7"/>
       <c r="W60" s="7"/>
       <c r="X60" s="7"/>
-      <c r="Y60" s="7"/>
     </row>
     <row r="61" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A61" s="15">
         <v>8.0</v>
       </c>
-      <c r="B61" s="26" t="s">
+      <c r="B61" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="C61" s="27" t="s">
-        <v>120</v>
-      </c>
       <c r="D61" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E61" s="19">
         <v>16000.0</v>
       </c>
-      <c r="F61" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G61" s="21"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="7"/>
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
@@ -3188,28 +3008,25 @@
       <c r="V61" s="7"/>
       <c r="W61" s="7"/>
       <c r="X61" s="7"/>
-      <c r="Y61" s="7"/>
     </row>
     <row r="62" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A62" s="15">
         <v>9.0</v>
       </c>
-      <c r="B62" s="26" t="s">
+      <c r="B62" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="C62" s="27" t="s">
-        <v>122</v>
-      </c>
       <c r="D62" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E62" s="19">
         <v>20000.0</v>
       </c>
-      <c r="F62" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G62" s="21"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="7"/>
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
@@ -3227,28 +3044,25 @@
       <c r="V62" s="7"/>
       <c r="W62" s="7"/>
       <c r="X62" s="7"/>
-      <c r="Y62" s="7"/>
     </row>
     <row r="63" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A63" s="15">
         <v>10.0</v>
       </c>
-      <c r="B63" s="26" t="s">
+      <c r="B63" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="C63" s="27" t="s">
-        <v>124</v>
-      </c>
       <c r="D63" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E63" s="19">
         <v>22000.0</v>
       </c>
-      <c r="F63" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G63" s="21"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="7"/>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
@@ -3266,28 +3080,25 @@
       <c r="V63" s="7"/>
       <c r="W63" s="7"/>
       <c r="X63" s="7"/>
-      <c r="Y63" s="7"/>
     </row>
     <row r="64" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A64" s="15">
         <v>11.0</v>
       </c>
-      <c r="B64" s="26" t="s">
+      <c r="B64" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="C64" s="27" t="s">
-        <v>126</v>
-      </c>
       <c r="D64" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E64" s="19">
         <v>2500.0</v>
       </c>
-      <c r="F64" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G64" s="21"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="7"/>
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
@@ -3305,28 +3116,25 @@
       <c r="V64" s="7"/>
       <c r="W64" s="7"/>
       <c r="X64" s="7"/>
-      <c r="Y64" s="7"/>
     </row>
     <row r="65" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A65" s="15">
         <v>12.0</v>
       </c>
-      <c r="B65" s="26" t="s">
+      <c r="B65" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="C65" s="27" t="s">
-        <v>128</v>
-      </c>
       <c r="D65" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E65" s="19">
         <v>2500.0</v>
       </c>
-      <c r="F65" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G65" s="21"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="7"/>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
@@ -3344,28 +3152,25 @@
       <c r="V65" s="7"/>
       <c r="W65" s="7"/>
       <c r="X65" s="7"/>
-      <c r="Y65" s="7"/>
     </row>
     <row r="66" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A66" s="15">
         <v>13.0</v>
       </c>
-      <c r="B66" s="26" t="s">
+      <c r="B66" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="C66" s="27" t="s">
-        <v>130</v>
-      </c>
       <c r="D66" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E66" s="19">
         <v>2700.0</v>
       </c>
-      <c r="F66" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G66" s="21"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="7"/>
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
@@ -3383,28 +3188,25 @@
       <c r="V66" s="7"/>
       <c r="W66" s="7"/>
       <c r="X66" s="7"/>
-      <c r="Y66" s="7"/>
     </row>
     <row r="67" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A67" s="15">
         <v>14.0</v>
       </c>
-      <c r="B67" s="26" t="s">
+      <c r="B67" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="C67" s="27" t="s">
-        <v>132</v>
-      </c>
       <c r="D67" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E67" s="19">
         <v>2700.0</v>
       </c>
-      <c r="F67" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G67" s="21"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="7"/>
       <c r="H67" s="7"/>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
@@ -3422,28 +3224,25 @@
       <c r="V67" s="7"/>
       <c r="W67" s="7"/>
       <c r="X67" s="7"/>
-      <c r="Y67" s="7"/>
     </row>
     <row r="68" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A68" s="15">
         <v>15.0</v>
       </c>
-      <c r="B68" s="26" t="s">
+      <c r="B68" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="C68" s="27" t="s">
-        <v>134</v>
-      </c>
       <c r="D68" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E68" s="19">
         <v>3000.0</v>
       </c>
-      <c r="F68" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G68" s="21"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="7"/>
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
@@ -3461,28 +3260,25 @@
       <c r="V68" s="7"/>
       <c r="W68" s="7"/>
       <c r="X68" s="7"/>
-      <c r="Y68" s="7"/>
     </row>
     <row r="69" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A69" s="15">
         <v>16.0</v>
       </c>
-      <c r="B69" s="26" t="s">
+      <c r="B69" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="C69" s="27" t="s">
-        <v>136</v>
-      </c>
       <c r="D69" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E69" s="19">
         <v>3000.0</v>
       </c>
-      <c r="F69" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G69" s="21"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="7"/>
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
@@ -3500,28 +3296,25 @@
       <c r="V69" s="7"/>
       <c r="W69" s="7"/>
       <c r="X69" s="7"/>
-      <c r="Y69" s="7"/>
     </row>
     <row r="70" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A70" s="15">
         <v>17.0</v>
       </c>
-      <c r="B70" s="26" t="s">
+      <c r="B70" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="C70" s="27" t="s">
-        <v>138</v>
-      </c>
       <c r="D70" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E70" s="19">
         <v>5500.0</v>
       </c>
-      <c r="F70" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G70" s="21"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="7"/>
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
@@ -3539,28 +3332,25 @@
       <c r="V70" s="7"/>
       <c r="W70" s="7"/>
       <c r="X70" s="7"/>
-      <c r="Y70" s="7"/>
     </row>
     <row r="71" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A71" s="15">
         <v>18.0</v>
       </c>
-      <c r="B71" s="26" t="s">
+      <c r="B71" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C71" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="C71" s="27" t="s">
-        <v>140</v>
-      </c>
       <c r="D71" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E71" s="19">
         <v>800.0</v>
       </c>
-      <c r="F71" s="20">
-        <v>1201.0</v>
-      </c>
-      <c r="G71" s="21"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="7"/>
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
@@ -3578,7 +3368,6 @@
       <c r="V71" s="7"/>
       <c r="W71" s="7"/>
       <c r="X71" s="7"/>
-      <c r="Y71" s="7"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="B72" s="1"/>
@@ -4910,11 +4699,10 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="E53:F53"/>
+  <mergeCells count="3">
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A23:E23"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
